--- a/last_problem.xlsx
+++ b/last_problem.xlsx
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,7 +372,7 @@
     <col min="1" max="1" width="45.23828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.89453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.8671875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="8.49609375" customWidth="true" bestFit="true"/>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>44750.65412037037</v>
@@ -500,21 +500,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BNZM-Lacin branch (K0100972)</t>
+          <t>M.HADI branch (K0235011)</t>
         </is>
       </c>
       <c r="B3" s="2">
-        <v>44750.56756944444</v>
+        <v>44720</v>
       </c>
       <c r="C3" s="2">
-        <v>44750.64753472222</v>
+        <v>44720</v>
       </c>
       <c r="D3" s="2">
-        <v>44746.50625</v>
+        <v>44720</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,49 +527,44 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
-        <v>44750.65412037037</v>
+        <v>44750.65481481481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agdas branch (K0160013)</t>
+          <t>Zengilan branch (K0236011)</t>
         </is>
       </c>
       <c r="B4" s="2">
-        <v>44750.57016203704</v>
+        <v>44722</v>
       </c>
       <c r="C4" s="2">
-        <v>44750.6469212963</v>
+        <v>44722</v>
       </c>
       <c r="D4" s="2">
-        <v>44749.35972222222</v>
+        <v>44721</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -584,42 +579,42 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2">
-        <v>44750.65412037037</v>
+        <v>44750.65481481481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M.HADI branch (K0235011)</t>
+          <t>GZM - Gence branch (K0100198) 24/7</t>
         </is>
       </c>
       <c r="B5" s="2">
-        <v>44720</v>
+        <v>44744</v>
       </c>
       <c r="C5" s="2">
-        <v>44720</v>
+        <v>44744</v>
       </c>
       <c r="D5" s="2">
-        <v>44720</v>
+        <v>44744.41736111111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -632,6 +627,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Disconnect</t>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M5" s="2">
         <v>44750.65481481481</v>
@@ -655,21 +655,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zengilan branch (K0236011)</t>
+          <t>Lökbatan Gömrük 1 (K0100542)</t>
         </is>
       </c>
       <c r="B6" s="2">
-        <v>44722</v>
+        <v>44748</v>
       </c>
       <c r="C6" s="2">
-        <v>44722</v>
+        <v>44749</v>
       </c>
       <c r="D6" s="2">
-        <v>44721</v>
+        <v>44746.46180555556</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -682,6 +682,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Disconnect</t>
@@ -693,10 +698,10 @@
         </is>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2">
         <v>44750.65481481481</v>
@@ -705,21 +710,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NOT XIRDALAN 2 SAYLI (N00X2011)</t>
+          <t>Hava Limani Gomruk (K0100546)</t>
         </is>
       </c>
       <c r="B7" s="2">
-        <v>44743</v>
+        <v>44750.46755787038</v>
       </c>
       <c r="C7" s="2">
-        <v>44749</v>
+        <v>44750.4982175926</v>
       </c>
       <c r="D7" s="2">
-        <v>44726.47430555556</v>
+        <v>44733.63125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -748,10 +753,10 @@
         </is>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M7" s="2">
         <v>44750.65481481481</v>
@@ -760,21 +765,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GZM - Gence branch (K0100198) 24/7</t>
+          <t>Masalli Aqrolizinq (K0100598)</t>
         </is>
       </c>
       <c r="B8" s="2">
-        <v>44744</v>
+        <v>44750.54462962963</v>
       </c>
       <c r="C8" s="2">
-        <v>44744</v>
+        <v>44750.54464120371</v>
       </c>
       <c r="D8" s="2">
-        <v>44744.41736111111</v>
+        <v>44748.59305555555</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -787,11 +792,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Disconnect</t>
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2">
         <v>44750.65481481481</v>
@@ -815,21 +815,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NOT XIRDALAN 2 SAYLI (N00X2012)</t>
+          <t>Baki Dövlet Universiteti 2 (K0100576)</t>
         </is>
       </c>
       <c r="B9" s="2">
-        <v>44744</v>
+        <v>44750.54489583333</v>
       </c>
       <c r="C9" s="2">
-        <v>44744</v>
+        <v>44750.54490740741</v>
       </c>
       <c r="D9" s="2">
-        <v>44735.48402777778</v>
+        <v>44749.55347222222</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -842,11 +842,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Disconnect</t>
@@ -858,10 +853,10 @@
         </is>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M9" s="2">
         <v>44750.65481481481</v>
@@ -870,26 +865,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lökbatan Gömrük 1 (K0100542)</t>
+          <t>TZM-Qazax Aqrolizinq (K0100615)</t>
         </is>
       </c>
       <c r="B10" s="2">
-        <v>44748</v>
+        <v>44750.6278125</v>
       </c>
       <c r="C10" s="2">
-        <v>44749</v>
+        <v>44750.63009259259</v>
       </c>
       <c r="D10" s="2">
-        <v>44746.46180555556</v>
+        <v>44747.52777777778</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -913,10 +908,10 @@
         </is>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M10" s="2">
         <v>44750.65481481481</v>
@@ -925,26 +920,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IZM-NOT QOBUSTAN (N0QOB011)</t>
+          <t>GZM-Gence branch (K0127014)</t>
         </is>
       </c>
       <c r="B11" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="C11" s="2">
-        <v>44750.58699074074</v>
+        <v>44750.64756944445</v>
       </c>
       <c r="D11" s="2">
-        <v>44733.52083333333</v>
+        <v>44602.69583333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -952,14 +947,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -968,10 +958,10 @@
         </is>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M11" s="2">
         <v>44750.65481481481</v>
@@ -980,26 +970,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SZM-NOT QAX (N0Qax011)</t>
+          <t>Sabirabad branch (K0144013)</t>
         </is>
       </c>
       <c r="B12" s="2">
-        <v>44749.76204861111</v>
+        <v>44749</v>
       </c>
       <c r="C12" s="2">
-        <v>44749.77009259259</v>
+        <v>44750.64863425925</v>
       </c>
       <c r="D12" s="2">
-        <v>44749.46736111111</v>
+        <v>44749.36736111112</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1007,14 +997,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1023,10 +1008,10 @@
         </is>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M12" s="2">
         <v>44750.65481481481</v>
@@ -1035,26 +1020,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NOT 12 SAYLI (N0012011)</t>
+          <t>Semkir branch (K0147012)</t>
         </is>
       </c>
       <c r="B13" s="2">
-        <v>44749.76693287037</v>
+        <v>44750.63377314815</v>
       </c>
       <c r="C13" s="2">
-        <v>44749.76903935186</v>
+        <v>44750.64693287037</v>
       </c>
       <c r="D13" s="2">
-        <v>44749.51666666666</v>
+        <v>44749.41041666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>527</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1062,14 +1047,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1078,10 +1058,10 @@
         </is>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M13" s="2">
         <v>44750.65481481481</v>
@@ -1090,21 +1070,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NOT 19 SAYLI (N0019012)</t>
+          <t>NOT 22 SAYLI (N0022011)</t>
         </is>
       </c>
       <c r="B14" s="2">
-        <v>44749.77084490741</v>
+        <v>44749.69671296296</v>
       </c>
       <c r="C14" s="2">
-        <v>44749.77906250001</v>
+        <v>44750.64696759259</v>
       </c>
       <c r="D14" s="2">
-        <v>44729.70625</v>
+        <v>44735.45972222222</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1119,24 +1099,24 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M14" s="2">
         <v>44750.65481481481</v>
@@ -1145,21 +1125,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LZM-NOT LENKERAN (N0LaN011)</t>
+          <t>SZM-ZAQATALA AQROLİZİNQ (K0100409)</t>
         </is>
       </c>
       <c r="B15" s="2">
-        <v>44749.81834490741</v>
+        <v>44750.30384259259</v>
       </c>
       <c r="C15" s="2">
-        <v>44750.44001157407</v>
+        <v>44750.64436342593</v>
       </c>
       <c r="D15" s="2">
-        <v>44750.43402777778</v>
+        <v>44741.60277777778</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1174,24 +1154,24 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M15" s="2">
         <v>44750.65481481481</v>
@@ -1200,21 +1180,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hava Limani Gomruk (K0100546)</t>
+          <t>BİNƏQƏDİ QEYDİYYAT ŞÖBƏSİ (K0100946)</t>
         </is>
       </c>
       <c r="B16" s="2">
-        <v>44750.46755787038</v>
+        <v>44750.49460648149</v>
       </c>
       <c r="C16" s="2">
-        <v>44750.4982175926</v>
+        <v>44750.646875</v>
       </c>
       <c r="D16" s="2">
-        <v>44733.63125</v>
+        <v>44735.47083333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>361</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1229,24 +1209,24 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M16" s="2">
         <v>44750.65481481481</v>
@@ -1255,21 +1235,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NOT 45 SAYLI (N0045012)</t>
+          <t>7 SAYLI ASAN SHOBE (K0100246)</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>44750.52866898148</v>
+        <v>44750.58130787037</v>
       </c>
       <c r="C17" s="2">
-        <v>44750.53943287037</v>
+        <v>44750.6475462963</v>
       </c>
       <c r="D17" s="2">
-        <v>44733.60416666667</v>
+        <v>44741.42916666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1284,24 +1264,24 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M17" s="2">
         <v>44750.65481481481</v>
@@ -1310,21 +1290,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LZM - NOT YARDIMLI (NYar0011)</t>
+          <t>Salyan Aqrolizinq (K0100610)</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>44750.53377314815</v>
+        <v>44750.58789351852</v>
       </c>
       <c r="C18" s="2">
-        <v>44750.53436342593</v>
+        <v>44750.64686342592</v>
       </c>
       <c r="D18" s="2">
-        <v>44747.52152777778</v>
+        <v>44734.4625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1339,24 +1319,24 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M18" s="2">
         <v>44750.65481481481</v>
@@ -1365,21 +1345,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Masalli Aqrolizinq (K0100598)</t>
+          <t>NOT 42 SAYLI (N0042011)</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>44750.54462962963</v>
+        <v>44750.59266203704</v>
       </c>
       <c r="C19" s="2">
-        <v>44750.54464120371</v>
+        <v>44750.64658564815</v>
       </c>
       <c r="D19" s="2">
-        <v>44748.59305555555</v>
+        <v>44743.56666666667</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>240</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1392,21 +1372,26 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M19" s="2">
         <v>44750.65481481481</v>
@@ -1415,21 +1400,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Baki Dövlet Universiteti 2 (K0100576)</t>
+          <t>BAKI DENIZ LIMANI (K0100626)</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>44750.54489583333</v>
+        <v>44750.59266203704</v>
       </c>
       <c r="C20" s="2">
-        <v>44750.54490740741</v>
+        <v>44750.64811342592</v>
       </c>
       <c r="D20" s="2">
-        <v>44749.55347222222</v>
+        <v>44744.50277777778</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1442,21 +1427,26 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M20" s="2">
         <v>44750.65481481481</v>
@@ -1465,21 +1455,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NOT 45 SAYLI (N0045011)</t>
+          <t>Agstafa branch (K0100965)</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>44750.56243055555</v>
+        <v>44750.59538194444</v>
       </c>
       <c r="C21" s="2">
-        <v>44750.56292824074</v>
+        <v>44750.64828703704</v>
       </c>
       <c r="D21" s="2">
-        <v>44749.62916666667</v>
+        <v>44749.49166666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>237</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1494,24 +1484,24 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M21" s="2">
         <v>44750.65481481481</v>
@@ -1520,21 +1510,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NOT NAFTALAN (DNaf0111)</t>
+          <t>IZM-Qebele Aqrolizinq (Unicom) (K0100599)</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>44750.59149305556</v>
+        <v>44750.59866898148</v>
       </c>
       <c r="C22" s="2">
-        <v>44750.62168981481</v>
+        <v>44750.64847222222</v>
       </c>
       <c r="D22" s="2">
-        <v>44747.69097222222</v>
+        <v>44736.56180555555</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>377</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1549,24 +1539,24 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M22" s="2">
         <v>44750.65481481481</v>
@@ -1575,26 +1565,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TZM-Qazax Aqrolizinq (K0100615)</t>
+          <t>SNZM-NOT SİRVAN (N0Sir011)</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>44750.6278125</v>
+        <v>44750.60513888889</v>
       </c>
       <c r="C23" s="2">
-        <v>44750.63009259259</v>
+        <v>44750.64715277778</v>
       </c>
       <c r="D23" s="2">
-        <v>44747.52777777778</v>
+        <v>44749.72083333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1604,24 +1594,24 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M23" s="2">
         <v>44750.65481481481</v>
@@ -1630,26 +1620,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127014)</t>
+          <t>Ismayilli branch (K0178013)</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>44748</v>
+        <v>44750.60621527777</v>
       </c>
       <c r="C24" s="2">
-        <v>44750.64756944445</v>
+        <v>44750.64680555556</v>
       </c>
       <c r="D24" s="2">
-        <v>44602.69583333333</v>
+        <v>44746.72430555556</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>452</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1657,6 +1647,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1664,14 +1659,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M24" s="2">
         <v>44750.65481481481</v>
@@ -1680,26 +1675,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sabirabad branch (K0144013)</t>
+          <t>LANDAU SCHOOI GENCLİK (K0100544)</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>44749</v>
+        <v>44750.61438657407</v>
       </c>
       <c r="C25" s="2">
-        <v>44750.64863425925</v>
+        <v>44750.64649305555</v>
       </c>
       <c r="D25" s="2">
-        <v>44749.36736111112</v>
+        <v>44747.61805555556</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>397</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1707,6 +1702,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1714,14 +1714,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M25" s="2">
         <v>44750.65481481481</v>
@@ -1730,26 +1730,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
+          <t>Zerdab branch (K0146013)</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>44750.41482638889</v>
+        <v>44750.61625</v>
       </c>
       <c r="C26" s="2">
-        <v>44750.6480787037</v>
+        <v>44750.64849537037</v>
       </c>
       <c r="D26" s="2">
-        <v>44736.46180555556</v>
+        <v>44747.525</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>649</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1769,14 +1769,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M26" s="2">
         <v>44750.65481481481</v>
@@ -1785,26 +1785,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140014)</t>
+          <t>İZM-Göyçay branch (K0100960)</t>
         </is>
       </c>
       <c r="B27" s="2">
-        <v>44750.42739583334</v>
+        <v>44750.6165625</v>
       </c>
       <c r="C27" s="2">
-        <v>44750.64849537037</v>
+        <v>44750.64744212963</v>
       </c>
       <c r="D27" s="2">
-        <v>44750.64583333333</v>
+        <v>44750.57222222223</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1812,6 +1812,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1819,14 +1824,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M27" s="2">
         <v>44750.65481481481</v>
@@ -1835,26 +1840,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>K1- 1 SAYLİ DOST MERKEZİ (K0100404)</t>
+          <t>DOST MERKEZ 4 SAYLİ (K0100239)</t>
         </is>
       </c>
       <c r="B28" s="2">
-        <v>44750.5159375</v>
+        <v>44750.61762731482</v>
       </c>
       <c r="C28" s="2">
-        <v>44750.64758101852</v>
+        <v>44750.64679398148</v>
       </c>
       <c r="D28" s="2">
-        <v>44735.45833333333</v>
+        <v>44734.54652777778</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>256</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1864,7 +1869,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1874,14 +1879,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M28" s="2">
         <v>44750.65481481481</v>
@@ -1890,26 +1895,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Goygol branch (K0183011)</t>
+          <t>YASAMAL QEYDİYYAT SÖBƏSİ (K0100935)</t>
         </is>
       </c>
       <c r="B29" s="2">
-        <v>44750.55802083333</v>
+        <v>44750.62152777778</v>
       </c>
       <c r="C29" s="2">
-        <v>44750.64773148148</v>
+        <v>44750.64834490741</v>
       </c>
       <c r="D29" s="2">
-        <v>44746.67222222222</v>
+        <v>44735.47986111111</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1917,6 +1922,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1924,14 +1934,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M29" s="2">
         <v>44750.65481481481</v>
@@ -1940,26 +1950,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cefer Cabbarli branch (K0104011)</t>
+          <t>SNZM-Neftcala branch (K0100954)</t>
         </is>
       </c>
       <c r="B30" s="2">
-        <v>44750.57248842593</v>
+        <v>44750.62189814815</v>
       </c>
       <c r="C30" s="2">
-        <v>44750.64768518518</v>
+        <v>44750.64712962963</v>
       </c>
       <c r="D30" s="2">
-        <v>44748.60347222223</v>
+        <v>44748.51527777778</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>377</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1967,6 +1977,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1974,14 +1989,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M30" s="2">
         <v>44750.65481481481</v>
@@ -1990,26 +2005,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SZM-SHEKİ ASAN SHOBE (K0100205)</t>
+          <t>SNZM-NOT SAATLİ (N0Sat011)</t>
         </is>
       </c>
       <c r="B31" s="2">
-        <v>44750.59953703704</v>
+        <v>44750.62281250001</v>
       </c>
       <c r="C31" s="2">
-        <v>44750.64679398148</v>
+        <v>44750.64739583334</v>
       </c>
       <c r="D31" s="2">
-        <v>44748.5</v>
+        <v>44749.55833333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2019,7 +2034,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2029,14 +2044,14 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M31" s="2">
         <v>44750.65481481481</v>
@@ -2045,26 +2060,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gence Kart Merkezi branch (K0206011)</t>
+          <t>IZM-Qebele branch (K0100987)</t>
         </is>
       </c>
       <c r="B32" s="2">
-        <v>44750.59991898148</v>
+        <v>44750.62314814815</v>
       </c>
       <c r="C32" s="2">
-        <v>44750.64840277778</v>
+        <v>44750.64827546296</v>
       </c>
       <c r="D32" s="2">
-        <v>44749.39652777778</v>
+        <v>44750.49930555555</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2072,6 +2087,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2079,14 +2099,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M32" s="2">
         <v>44750.65481481481</v>
@@ -2095,26 +2115,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127012)</t>
+          <t>Qazax branch (K0136013)</t>
         </is>
       </c>
       <c r="B33" s="2">
-        <v>44750.60047453704</v>
+        <v>44750.62836805556</v>
       </c>
       <c r="C33" s="2">
-        <v>44750.64675925926</v>
+        <v>44750.64681712963</v>
       </c>
       <c r="D33" s="2">
-        <v>44749.44652777778</v>
+        <v>44748.46875</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>452</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2134,14 +2154,14 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M33" s="2">
         <v>44750.65481481481</v>
@@ -2150,26 +2170,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Berde branch (K0137012)</t>
+          <t>LZM-MASALLİ ASAN SHOBE (K0100272)</t>
         </is>
       </c>
       <c r="B34" s="2">
-        <v>44750.60180555555</v>
+        <v>44750.63533564815</v>
       </c>
       <c r="C34" s="2">
-        <v>44750.64670138889</v>
+        <v>44750.64693287037</v>
       </c>
       <c r="D34" s="2">
-        <v>44750.37361111111</v>
+        <v>44749.42152777778</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2177,6 +2197,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2184,14 +2209,14 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M34" s="2">
         <v>44750.65481481481</v>
@@ -2200,26 +2225,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140013)</t>
+          <t>GZM-Gence branch (K0127015)</t>
         </is>
       </c>
       <c r="B35" s="2">
-        <v>44750.62149305556</v>
+        <v>44750.6378587963</v>
       </c>
       <c r="C35" s="2">
-        <v>44750.64815972222</v>
+        <v>44750.64744212963</v>
       </c>
       <c r="D35" s="2">
-        <v>44748.35902777778</v>
+        <v>44749.45069444444</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2227,6 +2252,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2234,14 +2264,14 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M35" s="2">
         <v>44750.65481481481</v>
@@ -2250,26 +2280,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GZM- Kepez branch (K0128012)</t>
+          <t>Bravo-2 branch (K0207011)</t>
         </is>
       </c>
       <c r="B36" s="2">
-        <v>44750.63078703704</v>
+        <v>44750.64836805555</v>
       </c>
       <c r="C36" s="2">
-        <v>44750.64675925926</v>
+        <v>44750.64853009259</v>
       </c>
       <c r="D36" s="2">
-        <v>44749.57638888889</v>
+        <v>44750.41319444445</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>568</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2277,6 +2307,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2284,14 +2319,14 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M36" s="2">
         <v>44750.65481481481</v>
@@ -2300,31 +2335,36 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Masalli branch (K0161011)</t>
+          <t>BNZM-ZENGİLAN BRANCH (K0100204)</t>
         </is>
       </c>
       <c r="B37" s="2">
-        <v>44750.63276620371</v>
+        <v>44750.57111111112</v>
       </c>
       <c r="C37" s="2">
-        <v>44750.64657407408</v>
+        <v>44750.6466550926</v>
       </c>
       <c r="D37" s="2">
-        <v>44750.63333333333</v>
+        <v>44790.51319444444</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Unknown error</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Works</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2334,14 +2374,14 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M37" s="2">
         <v>44750.65481481481</v>
@@ -2350,26 +2390,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>İZM- QEBELE ASAN SHOBE (K0100623)</t>
+          <t>Hezi Aslanov branch (K0100990)</t>
         </is>
       </c>
       <c r="B38" s="2">
-        <v>44750.63309027778</v>
+        <v>44749</v>
       </c>
       <c r="C38" s="2">
-        <v>44750.64748842592</v>
+        <v>44750.64859953704</v>
       </c>
       <c r="D38" s="2">
-        <v>44734.53194444445</v>
+        <v>44748.56388888889</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>619</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2389,14 +2429,14 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M38" s="2">
         <v>44750.65481481481</v>
@@ -2405,26 +2445,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Semkir branch (K0147012)</t>
+          <t>İZM -Kurdemir branch (K0100959)</t>
         </is>
       </c>
       <c r="B39" s="2">
-        <v>44750.63377314815</v>
+        <v>44749.93921296296</v>
       </c>
       <c r="C39" s="2">
-        <v>44750.64693287037</v>
+        <v>44750.64813657408</v>
       </c>
       <c r="D39" s="2">
-        <v>44749.41041666667</v>
+        <v>44748.51736111111</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2432,6 +2472,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2439,14 +2484,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M39" s="2">
         <v>44750.65481481481</v>
@@ -2455,26 +2500,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Merkez branch (K0102012)</t>
+          <t>Landau School 2 (K0100579)</t>
         </is>
       </c>
       <c r="B40" s="2">
-        <v>44750.64043981482</v>
+        <v>44744</v>
       </c>
       <c r="C40" s="2">
-        <v>44750.64710648148</v>
+        <v>44750.64674768518</v>
       </c>
       <c r="D40" s="2">
-        <v>44749.39097222222</v>
+        <v>44740.45763888889</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2482,6 +2527,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2489,14 +2539,14 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M40" s="2">
         <v>44750.65481481481</v>
@@ -2505,21 +2555,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NOT 22 SAYLI (N0022011)</t>
+          <t>XZM-SHİRVANOVKA GOMRUK POSTU (K0100222)</t>
         </is>
       </c>
       <c r="B41" s="2">
-        <v>44749.69671296296</v>
+        <v>44746</v>
       </c>
       <c r="C41" s="2">
-        <v>44750.64696759259</v>
+        <v>44750.64837962963</v>
       </c>
       <c r="D41" s="2">
-        <v>44735.45972222222</v>
+        <v>44736.48263888889</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2534,7 +2584,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2548,10 +2598,10 @@
         </is>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M41" s="2">
         <v>44750.65481481481</v>
@@ -2560,21 +2610,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SZM-ZAQATALA AQROLİZİNQ (K0100409)</t>
+          <t>POLİS AKADEMİYASİ SUVALAN (K0100226)</t>
         </is>
       </c>
       <c r="B42" s="2">
-        <v>44750.30384259259</v>
+        <v>44747</v>
       </c>
       <c r="C42" s="2">
-        <v>44750.64436342593</v>
+        <v>44750.64730324074</v>
       </c>
       <c r="D42" s="2">
-        <v>44741.60277777778</v>
+        <v>44733.61527777778</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2589,7 +2639,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2603,10 +2653,10 @@
         </is>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M42" s="2">
         <v>44750.65481481481</v>
@@ -2615,21 +2665,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GZM-GOYGOL AQROLİZİNQ (K0100281)</t>
+          <t>PreProd Chinar plaza (K0000265)</t>
         </is>
       </c>
       <c r="B43" s="2">
-        <v>44750.49322916666</v>
+        <v>44749.67137731482</v>
       </c>
       <c r="C43" s="2">
-        <v>44750.64854166667</v>
+        <v>44750.64851851852</v>
       </c>
       <c r="D43" s="2">
-        <v>44747.71111111112</v>
+        <v>44729.45625</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2642,11 +2692,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2658,10 +2703,10 @@
         </is>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M43" s="2">
         <v>44750.65481481481</v>
@@ -2670,21 +2715,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BİNƏQƏDİ QEYDİYYAT ŞÖBƏSİ (K0100946)</t>
+          <t>AZERGOLD QSC (ADM000010)</t>
         </is>
       </c>
       <c r="B44" s="2">
-        <v>44750.49460648149</v>
+        <v>44749.79828703703</v>
       </c>
       <c r="C44" s="2">
-        <v>44750.646875</v>
+        <v>44750.64755787037</v>
       </c>
       <c r="D44" s="2">
-        <v>44735.47083333333</v>
+        <v>44740.57152777778</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2697,11 +2742,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2713,10 +2753,10 @@
         </is>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M44" s="2">
         <v>44750.65481481481</v>
@@ -2725,21 +2765,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7 SAYLI ASAN SHOBE (K0100246)</t>
+          <t>BAKİ TAKSİ XİDMETİ (K0100569)</t>
         </is>
       </c>
       <c r="B45" s="2">
-        <v>44750.58130787037</v>
+        <v>44750.37606481482</v>
       </c>
       <c r="C45" s="2">
-        <v>44750.6475462963</v>
+        <v>44750.64768518518</v>
       </c>
       <c r="D45" s="2">
-        <v>44741.42916666667</v>
+        <v>44750.56597222222</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2752,11 +2792,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2768,10 +2803,10 @@
         </is>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M45" s="2">
         <v>44750.65481481481</v>
@@ -2780,21 +2815,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Salyan Aqrolizinq (K0100610)</t>
+          <t>Yardimli branch (K0175012)</t>
         </is>
       </c>
       <c r="B46" s="2">
-        <v>44750.58789351852</v>
+        <v>44750.39895833333</v>
       </c>
       <c r="C46" s="2">
-        <v>44750.64686342592</v>
+        <v>44750.64861111112</v>
       </c>
       <c r="D46" s="2">
-        <v>44734.4625</v>
+        <v>44743.36875</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>508</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2807,11 +2842,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2823,10 +2853,10 @@
         </is>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M46" s="2">
         <v>44750.65481481481</v>
@@ -2835,21 +2865,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NOT 42 SAYLI (N0042011)</t>
+          <t>BAKİXANOV FİLİALİ (ADM000007) 24/7</t>
         </is>
       </c>
       <c r="B47" s="2">
-        <v>44750.59266203704</v>
+        <v>44750.40862268519</v>
       </c>
       <c r="C47" s="2">
-        <v>44750.64658564815</v>
+        <v>44750.64789351852</v>
       </c>
       <c r="D47" s="2">
-        <v>44743.56666666667</v>
+        <v>44748.49930555555</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2862,11 +2892,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2878,10 +2903,10 @@
         </is>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M47" s="2">
         <v>44750.65481481481</v>
@@ -2890,21 +2915,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BAKI DENIZ LIMANI (K0100626)</t>
+          <t>XZM-XACMAZ SOBESİ (K0100224)</t>
         </is>
       </c>
       <c r="B48" s="2">
-        <v>44750.59266203704</v>
+        <v>44750.44690972222</v>
       </c>
       <c r="C48" s="2">
-        <v>44750.64811342592</v>
+        <v>44750.64831018519</v>
       </c>
       <c r="D48" s="2">
-        <v>44744.50277777778</v>
+        <v>44735.45277777778</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2919,7 +2944,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2933,10 +2958,10 @@
         </is>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M48" s="2">
         <v>44750.65481481481</v>
@@ -2945,21 +2970,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Agstafa branch (K0100965)</t>
+          <t>K2-BAKI PROBOSIYA IDARESI (K0100283)</t>
         </is>
       </c>
       <c r="B49" s="2">
-        <v>44750.59538194444</v>
+        <v>44750.4605787037</v>
       </c>
       <c r="C49" s="2">
-        <v>44750.64828703704</v>
+        <v>44750.64858796296</v>
       </c>
       <c r="D49" s="2">
-        <v>44749.49166666667</v>
+        <v>44741.44513888889</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2974,7 +2999,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2988,10 +3013,10 @@
         </is>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M49" s="2">
         <v>44750.65481481481</v>
@@ -3000,21 +3025,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IZM-Qebele Aqrolizinq (Unicom) (K0100599)</t>
+          <t>LEXUS SM (ADM000003)</t>
         </is>
       </c>
       <c r="B50" s="2">
-        <v>44750.59866898148</v>
+        <v>44750.46435185186</v>
       </c>
       <c r="C50" s="2">
-        <v>44750.64847222222</v>
+        <v>44750.64673611111</v>
       </c>
       <c r="D50" s="2">
-        <v>44736.56180555555</v>
+        <v>44746.39861111112</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3027,11 +3052,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3043,10 +3063,10 @@
         </is>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M50" s="2">
         <v>44750.65481481481</v>
@@ -3055,21 +3075,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SNZM-NOT SİRVAN (N0Sir011)</t>
+          <t>Iqtisadi ITKM (K0100538)</t>
         </is>
       </c>
       <c r="B51" s="2">
-        <v>44750.60513888889</v>
+        <v>44750.465</v>
       </c>
       <c r="C51" s="2">
-        <v>44750.64715277778</v>
+        <v>44750.6475</v>
       </c>
       <c r="D51" s="2">
-        <v>44749.72083333333</v>
+        <v>44749.51458333334</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3082,11 +3102,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3098,10 +3113,10 @@
         </is>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M51" s="2">
         <v>44750.65481481481</v>
@@ -3110,21 +3125,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ismayilli branch (K0178013)</t>
+          <t>Yardimli branch (K0175011)</t>
         </is>
       </c>
       <c r="B52" s="2">
-        <v>44750.60621527777</v>
+        <v>44750.4678587963</v>
       </c>
       <c r="C52" s="2">
-        <v>44750.64680555556</v>
+        <v>44750.64763888888</v>
       </c>
       <c r="D52" s="2">
-        <v>44746.72430555556</v>
+        <v>44743.36944444444</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>621</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3137,11 +3152,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3153,10 +3163,10 @@
         </is>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M52" s="2">
         <v>44750.65481481481</v>
@@ -3165,21 +3175,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LANDAU SCHOOI GENCLİK (K0100544)</t>
+          <t>Az.Dövlet Pedoqoji Universiteti (K0100512)</t>
         </is>
       </c>
       <c r="B53" s="2">
-        <v>44750.61438657407</v>
+        <v>44750.50019675925</v>
       </c>
       <c r="C53" s="2">
-        <v>44750.64649305555</v>
+        <v>44750.64810185185</v>
       </c>
       <c r="D53" s="2">
-        <v>44747.61805555556</v>
+        <v>44743.62638888889</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3192,11 +3202,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3208,10 +3213,10 @@
         </is>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M53" s="2">
         <v>44750.65481481481</v>
@@ -3220,21 +3225,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Zerdab branch (K0146013)</t>
+          <t>SZM- BALAKEN ASAN SHOBE (K0100387)</t>
         </is>
       </c>
       <c r="B54" s="2">
-        <v>44750.61625</v>
+        <v>44750.51119212963</v>
       </c>
       <c r="C54" s="2">
-        <v>44750.64849537037</v>
+        <v>44750.64775462963</v>
       </c>
       <c r="D54" s="2">
-        <v>44747.525</v>
+        <v>44749.60416666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3249,7 +3254,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3263,10 +3268,10 @@
         </is>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M54" s="2">
         <v>44750.65481481481</v>
@@ -3275,21 +3280,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>İZM-Göyçay branch (K0100960)</t>
+          <t>Daskesen branch (K0100963)</t>
         </is>
       </c>
       <c r="B55" s="2">
-        <v>44750.6165625</v>
+        <v>44750.51225694444</v>
       </c>
       <c r="C55" s="2">
-        <v>44750.64744212963</v>
+        <v>44750.64740740741</v>
       </c>
       <c r="D55" s="2">
-        <v>44750.57222222223</v>
+        <v>44748.56111111111</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3304,7 +3309,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3318,10 +3323,10 @@
         </is>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M55" s="2">
         <v>44750.65481481481</v>
@@ -3330,21 +3335,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DOST MERKEZ 4 SAYLİ (K0100239)</t>
+          <t>Cabrayil branch (K0188011)</t>
         </is>
       </c>
       <c r="B56" s="2">
-        <v>44750.61762731482</v>
+        <v>44750.51862268518</v>
       </c>
       <c r="C56" s="2">
-        <v>44750.64679398148</v>
+        <v>44750.64844907407</v>
       </c>
       <c r="D56" s="2">
-        <v>44734.54652777778</v>
+        <v>44749.51527777778</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3357,11 +3362,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3373,10 +3373,10 @@
         </is>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M56" s="2">
         <v>44750.65481481481</v>
@@ -3385,21 +3385,21 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>YASAMAL QEYDİYYAT SÖBƏSİ (K0100935)</t>
+          <t>Xezer Deniz Gemiçilik (K0100501)</t>
         </is>
       </c>
       <c r="B57" s="2">
-        <v>44750.62152777778</v>
+        <v>44750.52569444444</v>
       </c>
       <c r="C57" s="2">
-        <v>44750.64834490741</v>
+        <v>44750.64784722222</v>
       </c>
       <c r="D57" s="2">
-        <v>44735.47986111111</v>
+        <v>44747.59375</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>447</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3412,11 +3412,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3428,10 +3423,10 @@
         </is>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M57" s="2">
         <v>44750.65481481481</v>
@@ -3440,21 +3435,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SNZM-Neftcala branch (K0100954)</t>
+          <t>BNZM-AGCABEDİ ASAN SHOBE (K0100201)</t>
         </is>
       </c>
       <c r="B58" s="2">
-        <v>44750.62189814815</v>
+        <v>44750.53258101852</v>
       </c>
       <c r="C58" s="2">
-        <v>44750.64712962963</v>
+        <v>44750.64788194445</v>
       </c>
       <c r="D58" s="2">
-        <v>44748.51527777778</v>
+        <v>44746.53263888889</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3469,7 +3464,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3483,10 +3478,10 @@
         </is>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M58" s="2">
         <v>44750.65481481481</v>
@@ -3495,21 +3490,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SNZM-NOT SAATLİ (N0Sat011)</t>
+          <t>SABUNCU FİLİALİ (ADM120001)</t>
         </is>
       </c>
       <c r="B59" s="2">
-        <v>44750.62281250001</v>
+        <v>44750.54303240741</v>
       </c>
       <c r="C59" s="2">
-        <v>44750.64739583334</v>
+        <v>44750.64759259259</v>
       </c>
       <c r="D59" s="2">
-        <v>44749.55833333333</v>
+        <v>44750.54791666666</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3522,11 +3517,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3538,10 +3528,10 @@
         </is>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M59" s="2">
         <v>44750.65481481481</v>
@@ -3550,21 +3540,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IZM-Qebele branch (K0100987)</t>
+          <t>Sumqayit branch (K0125014)</t>
         </is>
       </c>
       <c r="B60" s="2">
-        <v>44750.62314814815</v>
+        <v>44750.54615740741</v>
       </c>
       <c r="C60" s="2">
-        <v>44750.64827546296</v>
+        <v>44750.64738425926</v>
       </c>
       <c r="D60" s="2">
-        <v>44750.49930555555</v>
+        <v>44747.68680555555</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>312</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3577,11 +3567,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3593,10 +3578,10 @@
         </is>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M60" s="2">
         <v>44750.65481481481</v>
@@ -3605,21 +3590,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Qazax branch (K0136013)</t>
+          <t>GZM- Mingecevir branch (K0129013)</t>
         </is>
       </c>
       <c r="B61" s="2">
-        <v>44750.62836805556</v>
+        <v>44750.62048611111</v>
       </c>
       <c r="C61" s="2">
-        <v>44750.64681712963</v>
+        <v>44750.63425925926</v>
       </c>
       <c r="D61" s="2">
-        <v>44748.46875</v>
+        <v>44749.65347222222</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>316</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3632,54 +3617,49 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M61" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LZM-MASALLİ ASAN SHOBE (K0100272)</t>
+          <t>Sirvan branch (K0141011)</t>
         </is>
       </c>
       <c r="B62" s="2">
-        <v>44750.63533564815</v>
+        <v>44750.6415625</v>
       </c>
       <c r="C62" s="2">
-        <v>44750.64693287037</v>
+        <v>44750.6580324074</v>
       </c>
       <c r="D62" s="2">
-        <v>44749.42152777778</v>
+        <v>44750.65277777778</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3687,11 +3667,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3699,42 +3674,42 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M62" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127015)</t>
+          <t>Sahbuz branch (K0134002)</t>
         </is>
       </c>
       <c r="B63" s="2">
-        <v>44750.6378587963</v>
+        <v>44750.64986111112</v>
       </c>
       <c r="C63" s="2">
-        <v>44750.64744212963</v>
+        <v>44750.65710648148</v>
       </c>
       <c r="D63" s="2">
-        <v>44749.45069444444</v>
+        <v>44750.65208333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3744,7 +3719,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3754,42 +3729,42 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M63" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Menzil Insaat Dövlet agentliyi. MIDA (K0100564)</t>
+          <t>Agdas branch (K0160012)</t>
         </is>
       </c>
       <c r="B64" s="2">
-        <v>44750.6440625</v>
+        <v>44750.6520949074</v>
       </c>
       <c r="C64" s="2">
-        <v>44750.64833333333</v>
+        <v>44750.65631944445</v>
       </c>
       <c r="D64" s="2">
-        <v>44746.55486111112</v>
+        <v>44749.35902777778</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>434</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3797,11 +3772,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3809,37 +3779,37 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M64" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bravo-2 branch (K0207011)</t>
+          <t>NOT 35 SAYLI (N0035011)</t>
         </is>
       </c>
       <c r="B65" s="2">
-        <v>44750.64836805555</v>
+        <v>44750.54600694445</v>
       </c>
       <c r="C65" s="2">
-        <v>44750.64853009259</v>
+        <v>44750.65688657407</v>
       </c>
       <c r="D65" s="2">
-        <v>44750.41319444445</v>
+        <v>44742.52708333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>228</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3849,12 +3819,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Unknown error</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3868,33 +3838,33 @@
         </is>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M65" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BNZM-ZENGİLAN BRANCH (K0100204)</t>
+          <t>Beyleqan branch (K0140011)</t>
         </is>
       </c>
       <c r="B66" s="2">
-        <v>44750.57111111112</v>
+        <v>44750.63945601851</v>
       </c>
       <c r="C66" s="2">
-        <v>44750.6466550926</v>
+        <v>44750.65671296296</v>
       </c>
       <c r="D66" s="2">
-        <v>44790.51319444444</v>
+        <v>44747.45138888889</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>979</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3907,11 +3877,6 @@
           <t>Unknown error</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3923,33 +3888,33 @@
         </is>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M66" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hezi Aslanov branch (K0100990)</t>
+          <t>K1-Bineqedi branch (K0100978) 24/7</t>
         </is>
       </c>
       <c r="B67" s="2">
-        <v>44749</v>
+        <v>44750.65123842593</v>
       </c>
       <c r="C67" s="2">
-        <v>44750.64859953704</v>
+        <v>44750.65789351852</v>
       </c>
       <c r="D67" s="2">
-        <v>44748.56388888889</v>
+        <v>44746.49027777778</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3959,7 +3924,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Paper end</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3978,33 +3943,33 @@
         </is>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M67" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>İZM -Kurdemir branch (K0100959)</t>
+          <t>Sabran branch (K0158011)</t>
         </is>
       </c>
       <c r="B68" s="2">
-        <v>44749.93921296296</v>
+        <v>44750.64643518519</v>
       </c>
       <c r="C68" s="2">
-        <v>44750.64813657408</v>
+        <v>44750.65670138889</v>
       </c>
       <c r="D68" s="2">
-        <v>44748.51736111111</v>
+        <v>44748.39791666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>271</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4014,12 +3979,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Works</t>
+          <t>Almost out of paper</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4033,33 +3993,33 @@
         </is>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M68" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Landau School 2 (K0100579)</t>
+          <t>Nizami branch (K0113003)</t>
         </is>
       </c>
       <c r="B69" s="2">
-        <v>44744</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="C69" s="2">
-        <v>44750.64674768518</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="D69" s="2">
-        <v>44740.45763888889</v>
+        <v>44750.48541666666</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>272</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4069,12 +4029,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Works</t>
+          <t>Almost out of paper</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4088,33 +4043,33 @@
         </is>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M69" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>XZM-SHİRVANOVKA GOMRUK POSTU (K0100222)</t>
+          <t>Quba branch (K0165014)</t>
         </is>
       </c>
       <c r="B70" s="2">
-        <v>44746</v>
+        <v>44750.57199074074</v>
       </c>
       <c r="C70" s="2">
-        <v>44750.64837962963</v>
+        <v>44750.65694444445</v>
       </c>
       <c r="D70" s="2">
-        <v>44736.48263888889</v>
+        <v>44748.52569444444</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>202</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4127,11 +4082,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4143,38 +4093,38 @@
         </is>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M70" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>POLİS AKADEMİYASİ SUVALAN (K0100226)</t>
+          <t>Kurdemir branch (K0157012)</t>
         </is>
       </c>
       <c r="B71" s="2">
-        <v>44747</v>
+        <v>44750.6456712963</v>
       </c>
       <c r="C71" s="2">
-        <v>44750.64730324074</v>
+        <v>44750.66913194444</v>
       </c>
       <c r="D71" s="2">
-        <v>44733.61527777778</v>
+        <v>44750.66458333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4182,11 +4132,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4194,7 +4139,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K71">
@@ -4204,32 +4149,32 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PreProd Chinar plaza (K0000265)</t>
+          <t>Beyleqan branch (K0140012)</t>
         </is>
       </c>
       <c r="B72" s="2">
-        <v>44749.67137731482</v>
+        <v>44750.66349537037</v>
       </c>
       <c r="C72" s="2">
-        <v>44750.64851851852</v>
+        <v>44750.6672337963</v>
       </c>
       <c r="D72" s="2">
-        <v>44729.45625</v>
+        <v>44748.36041666666</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>660</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4244,7 +4189,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K72">
@@ -4254,27 +4199,27 @@
         <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AZERGOLD QSC (ADM000010)</t>
+          <t>GZM-Gence branch (K0127012)</t>
         </is>
       </c>
       <c r="B73" s="2">
-        <v>44749.79828703703</v>
+        <v>44750.60032407408</v>
       </c>
       <c r="C73" s="2">
-        <v>44750.64755787037</v>
+        <v>44750.66859953704</v>
       </c>
       <c r="D73" s="2">
-        <v>44740.57152777778</v>
+        <v>44749.44652777778</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4285,6 +4230,11 @@
       <c r="G73" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4304,27 +4254,27 @@
         <v>0</v>
       </c>
       <c r="M73" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BAKİ TAKSİ XİDMETİ (K0100569)</t>
+          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
         </is>
       </c>
       <c r="B74" s="2">
-        <v>44750.37606481482</v>
+        <v>44750.41467592593</v>
       </c>
       <c r="C74" s="2">
-        <v>44750.64768518518</v>
+        <v>44750.66907407407</v>
       </c>
       <c r="D74" s="2">
-        <v>44750.56597222222</v>
+        <v>44736.46180555556</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4335,6 +4285,11 @@
       <c r="G74" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Works</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4354,27 +4309,27 @@
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Yardimli branch (K0175012)</t>
+          <t>Goygol branch (K0183011)</t>
         </is>
       </c>
       <c r="B75" s="2">
-        <v>44750.39895833333</v>
+        <v>44750.55787037037</v>
       </c>
       <c r="C75" s="2">
-        <v>44750.64861111112</v>
+        <v>44750.66900462963</v>
       </c>
       <c r="D75" s="2">
-        <v>44743.36875</v>
+        <v>44746.67222222222</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4404,932 +4359,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>BAKİXANOV FİLİALİ (ADM000007) 24/7</t>
-        </is>
-      </c>
-      <c r="B76" s="2">
-        <v>44750.40862268519</v>
-      </c>
-      <c r="C76" s="2">
-        <v>44750.64789351852</v>
-      </c>
-      <c r="D76" s="2">
-        <v>44748.49930555555</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>1091</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>XZM-XACMAZ SOBESİ (K0100224)</t>
-        </is>
-      </c>
-      <c r="B77" s="2">
-        <v>44750.44690972222</v>
-      </c>
-      <c r="C77" s="2">
-        <v>44750.64831018519</v>
-      </c>
-      <c r="D77" s="2">
-        <v>44735.45277777778</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>K2-BAKI PROBOSIYA IDARESI (K0100283)</t>
-        </is>
-      </c>
-      <c r="B78" s="2">
-        <v>44750.4605787037</v>
-      </c>
-      <c r="C78" s="2">
-        <v>44750.64858796296</v>
-      </c>
-      <c r="D78" s="2">
-        <v>44741.44513888889</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>LEXUS SM (ADM000003)</t>
-        </is>
-      </c>
-      <c r="B79" s="2">
-        <v>44750.46435185186</v>
-      </c>
-      <c r="C79" s="2">
-        <v>44750.64673611111</v>
-      </c>
-      <c r="D79" s="2">
-        <v>44746.39861111112</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>4830</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Iqtisadi ITKM (K0100538)</t>
-        </is>
-      </c>
-      <c r="B80" s="2">
-        <v>44750.465</v>
-      </c>
-      <c r="C80" s="2">
-        <v>44750.6475</v>
-      </c>
-      <c r="D80" s="2">
-        <v>44749.51458333334</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Yardimli branch (K0175011)</t>
-        </is>
-      </c>
-      <c r="B81" s="2">
-        <v>44750.4678587963</v>
-      </c>
-      <c r="C81" s="2">
-        <v>44750.64763888888</v>
-      </c>
-      <c r="D81" s="2">
-        <v>44743.36944444444</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>621</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Az.Dövlet Pedoqoji Universiteti (K0100512)</t>
-        </is>
-      </c>
-      <c r="B82" s="2">
-        <v>44750.50019675925</v>
-      </c>
-      <c r="C82" s="2">
-        <v>44750.64810185185</v>
-      </c>
-      <c r="D82" s="2">
-        <v>44743.62638888889</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>SZM- BALAKEN ASAN SHOBE (K0100387)</t>
-        </is>
-      </c>
-      <c r="B83" s="2">
-        <v>44750.51119212963</v>
-      </c>
-      <c r="C83" s="2">
-        <v>44750.64775462963</v>
-      </c>
-      <c r="D83" s="2">
-        <v>44749.60416666667</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Daskesen branch (K0100963)</t>
-        </is>
-      </c>
-      <c r="B84" s="2">
-        <v>44750.51225694444</v>
-      </c>
-      <c r="C84" s="2">
-        <v>44750.64740740741</v>
-      </c>
-      <c r="D84" s="2">
-        <v>44748.56111111111</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Cabrayil branch (K0188011)</t>
-        </is>
-      </c>
-      <c r="B85" s="2">
-        <v>44750.51862268518</v>
-      </c>
-      <c r="C85" s="2">
-        <v>44750.64844907407</v>
-      </c>
-      <c r="D85" s="2">
-        <v>44749.51527777778</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Xezer Deniz Gemiçilik (K0100501)</t>
-        </is>
-      </c>
-      <c r="B86" s="2">
-        <v>44750.52569444444</v>
-      </c>
-      <c r="C86" s="2">
-        <v>44750.64784722222</v>
-      </c>
-      <c r="D86" s="2">
-        <v>44747.59375</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>447</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Dərnəgül Cinar Park (ADM000001)</t>
-        </is>
-      </c>
-      <c r="B87" s="2">
-        <v>44750.53247685185</v>
-      </c>
-      <c r="C87" s="2">
-        <v>44750.64726851851</v>
-      </c>
-      <c r="D87" s="2">
-        <v>44748.47777777778</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>BNZM-AGCABEDİ ASAN SHOBE (K0100201)</t>
-        </is>
-      </c>
-      <c r="B88" s="2">
-        <v>44750.53258101852</v>
-      </c>
-      <c r="C88" s="2">
-        <v>44750.64788194445</v>
-      </c>
-      <c r="D88" s="2">
-        <v>44746.53263888889</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>XZM-Sabran branch (K0100949)</t>
-        </is>
-      </c>
-      <c r="B89" s="2">
-        <v>44750.54072916666</v>
-      </c>
-      <c r="C89" s="2">
-        <v>44750.64668981481</v>
-      </c>
-      <c r="D89" s="2">
-        <v>44747.46458333333</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>SABUNCU FİLİALİ (ADM120001)</t>
-        </is>
-      </c>
-      <c r="B90" s="2">
-        <v>44750.54303240741</v>
-      </c>
-      <c r="C90" s="2">
-        <v>44750.64759259259</v>
-      </c>
-      <c r="D90" s="2">
-        <v>44750.54791666666</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Emlak Idaresi (K0100543)</t>
-        </is>
-      </c>
-      <c r="B91" s="2">
-        <v>44750.5453125</v>
-      </c>
-      <c r="C91" s="2">
-        <v>44750.64694444445</v>
-      </c>
-      <c r="D91" s="2">
-        <v>44742.41527777778</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Sumqayit branch (K0125014)</t>
-        </is>
-      </c>
-      <c r="B92" s="2">
-        <v>44750.54615740741</v>
-      </c>
-      <c r="C92" s="2">
-        <v>44750.64738425926</v>
-      </c>
-      <c r="D92" s="2">
-        <v>44747.68680555555</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92" s="2">
-        <v>44750.65481481481</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Naftalan branch (K0156011)</t>
-        </is>
-      </c>
-      <c r="B93" s="2">
-        <v>44750.56028935185</v>
-      </c>
-      <c r="C93" s="2">
-        <v>44750.64658564815</v>
-      </c>
-      <c r="D93" s="2">
-        <v>44748.42777777778</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
   </sheetData>

--- a/last_problem.xlsx
+++ b/last_problem.xlsx
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="K2">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L2">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2">
         <v>44750.65412037037</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>44750.65481481481</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="K4">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2">
         <v>44750.65481481481</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="K5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2">
         <v>44750.65481481481</v>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="K6">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2">
         <v>44750.65481481481</v>
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="K7">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2">
         <v>44750.65481481481</v>
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="K8">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>44750.65481481481</v>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="K9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M9" s="2">
         <v>44750.65481481481</v>
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="K10">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2">
         <v>44750.65481481481</v>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="K11">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M11" s="2">
         <v>44750.65481481481</v>
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="K12">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M12" s="2">
         <v>44750.65481481481</v>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="K13">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2">
         <v>44750.65481481481</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="K14">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2">
         <v>44750.65481481481</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2">
         <v>44750.65481481481</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="K16">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M16" s="2">
         <v>44750.65481481481</v>
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="K17">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M17" s="2">
         <v>44750.65481481481</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M18" s="2">
         <v>44750.65481481481</v>
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M19" s="2">
         <v>44750.65481481481</v>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="K20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M20" s="2">
         <v>44750.65481481481</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="K21">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M21" s="2">
         <v>44750.65481481481</v>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="K22">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M22" s="2">
         <v>44750.65481481481</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="K23">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M23" s="2">
         <v>44750.65481481481</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="K24">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M24" s="2">
         <v>44750.65481481481</v>
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="K25">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M25" s="2">
         <v>44750.65481481481</v>
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="K26">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M26" s="2">
         <v>44750.65481481481</v>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="K27">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M27" s="2">
         <v>44750.65481481481</v>
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="K28">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M28" s="2">
         <v>44750.65481481481</v>
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="K29">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M29" s="2">
         <v>44750.65481481481</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="K30">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M30" s="2">
         <v>44750.65481481481</v>
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="K31">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M31" s="2">
         <v>44750.65481481481</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="K32">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M32" s="2">
         <v>44750.65481481481</v>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="K33">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M33" s="2">
         <v>44750.65481481481</v>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="K34">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M34" s="2">
         <v>44750.65481481481</v>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="K35">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M35" s="2">
         <v>44750.65481481481</v>
@@ -2280,21 +2280,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bravo-2 branch (K0207011)</t>
+          <t>BNZM-ZENGİLAN BRANCH (K0100204)</t>
         </is>
       </c>
       <c r="B36" s="2">
-        <v>44750.64836805555</v>
+        <v>44750.57111111112</v>
       </c>
       <c r="C36" s="2">
-        <v>44750.64853009259</v>
+        <v>44750.6466550926</v>
       </c>
       <c r="D36" s="2">
-        <v>44750.41319444445</v>
+        <v>44790.51319444444</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Unknown error</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="K36">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M36" s="2">
         <v>44750.65481481481</v>
@@ -2335,21 +2335,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BNZM-ZENGİLAN BRANCH (K0100204)</t>
+          <t>Hezi Aslanov branch (K0100990)</t>
         </is>
       </c>
       <c r="B37" s="2">
-        <v>44750.57111111112</v>
+        <v>44749</v>
       </c>
       <c r="C37" s="2">
-        <v>44750.6466550926</v>
+        <v>44750.64859953704</v>
       </c>
       <c r="D37" s="2">
-        <v>44790.51319444444</v>
+        <v>44748.56388888889</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>619</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Unknown error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="K37">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M37" s="2">
         <v>44750.65481481481</v>
@@ -2390,21 +2390,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hezi Aslanov branch (K0100990)</t>
+          <t>İZM -Kurdemir branch (K0100959)</t>
         </is>
       </c>
       <c r="B38" s="2">
-        <v>44749</v>
+        <v>44749.93921296296</v>
       </c>
       <c r="C38" s="2">
-        <v>44750.64859953704</v>
+        <v>44750.64813657408</v>
       </c>
       <c r="D38" s="2">
-        <v>44748.56388888889</v>
+        <v>44748.51736111111</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="K38">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M38" s="2">
         <v>44750.65481481481</v>
@@ -2445,21 +2445,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>İZM -Kurdemir branch (K0100959)</t>
+          <t>Landau School 2 (K0100579)</t>
         </is>
       </c>
       <c r="B39" s="2">
-        <v>44749.93921296296</v>
+        <v>44744</v>
       </c>
       <c r="C39" s="2">
-        <v>44750.64813657408</v>
+        <v>44750.64674768518</v>
       </c>
       <c r="D39" s="2">
-        <v>44748.51736111111</v>
+        <v>44740.45763888889</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="K39">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M39" s="2">
         <v>44750.65481481481</v>
@@ -2500,21 +2500,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Landau School 2 (K0100579)</t>
+          <t>XZM-SHİRVANOVKA GOMRUK POSTU (K0100222)</t>
         </is>
       </c>
       <c r="B40" s="2">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="C40" s="2">
-        <v>44750.64674768518</v>
+        <v>44750.64837962963</v>
       </c>
       <c r="D40" s="2">
-        <v>44740.45763888889</v>
+        <v>44736.48263888889</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="K40">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M40" s="2">
         <v>44750.65481481481</v>
@@ -2555,21 +2555,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>XZM-SHİRVANOVKA GOMRUK POSTU (K0100222)</t>
+          <t>POLİS AKADEMİYASİ SUVALAN (K0100226)</t>
         </is>
       </c>
       <c r="B41" s="2">
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="C41" s="2">
-        <v>44750.64837962963</v>
+        <v>44750.64730324074</v>
       </c>
       <c r="D41" s="2">
-        <v>44736.48263888889</v>
+        <v>44733.61527777778</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="K41">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M41" s="2">
         <v>44750.65481481481</v>
@@ -2610,21 +2610,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>POLİS AKADEMİYASİ SUVALAN (K0100226)</t>
+          <t>PreProd Chinar plaza (K0000265)</t>
         </is>
       </c>
       <c r="B42" s="2">
-        <v>44747</v>
+        <v>44749.67137731482</v>
       </c>
       <c r="C42" s="2">
-        <v>44750.64730324074</v>
+        <v>44750.64851851852</v>
       </c>
       <c r="D42" s="2">
-        <v>44733.61527777778</v>
+        <v>44729.45625</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2637,11 +2637,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2653,10 +2648,10 @@
         </is>
       </c>
       <c r="K42">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M42" s="2">
         <v>44750.65481481481</v>
@@ -2665,21 +2660,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PreProd Chinar plaza (K0000265)</t>
+          <t>AZERGOLD QSC (ADM000010)</t>
         </is>
       </c>
       <c r="B43" s="2">
-        <v>44749.67137731482</v>
+        <v>44749.79828703703</v>
       </c>
       <c r="C43" s="2">
-        <v>44750.64851851852</v>
+        <v>44750.64755787037</v>
       </c>
       <c r="D43" s="2">
-        <v>44729.45625</v>
+        <v>44740.57152777778</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2703,10 +2698,10 @@
         </is>
       </c>
       <c r="K43">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M43" s="2">
         <v>44750.65481481481</v>
@@ -2715,21 +2710,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AZERGOLD QSC (ADM000010)</t>
+          <t>BAKİ TAKSİ XİDMETİ (K0100569)</t>
         </is>
       </c>
       <c r="B44" s="2">
-        <v>44749.79828703703</v>
+        <v>44750.37606481482</v>
       </c>
       <c r="C44" s="2">
-        <v>44750.64755787037</v>
+        <v>44750.64768518518</v>
       </c>
       <c r="D44" s="2">
-        <v>44740.57152777778</v>
+        <v>44750.56597222222</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2753,10 +2748,10 @@
         </is>
       </c>
       <c r="K44">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M44" s="2">
         <v>44750.65481481481</v>
@@ -2765,21 +2760,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BAKİ TAKSİ XİDMETİ (K0100569)</t>
+          <t>Yardimli branch (K0175012)</t>
         </is>
       </c>
       <c r="B45" s="2">
-        <v>44750.37606481482</v>
+        <v>44750.39895833333</v>
       </c>
       <c r="C45" s="2">
-        <v>44750.64768518518</v>
+        <v>44750.64861111112</v>
       </c>
       <c r="D45" s="2">
-        <v>44750.56597222222</v>
+        <v>44743.36875</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>508</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2803,10 +2798,10 @@
         </is>
       </c>
       <c r="K45">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M45" s="2">
         <v>44750.65481481481</v>
@@ -2815,21 +2810,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Yardimli branch (K0175012)</t>
+          <t>BAKİXANOV FİLİALİ (ADM000007) 24/7</t>
         </is>
       </c>
       <c r="B46" s="2">
-        <v>44750.39895833333</v>
+        <v>44750.40862268519</v>
       </c>
       <c r="C46" s="2">
-        <v>44750.64861111112</v>
+        <v>44750.64789351852</v>
       </c>
       <c r="D46" s="2">
-        <v>44743.36875</v>
+        <v>44748.49930555555</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2853,10 +2848,10 @@
         </is>
       </c>
       <c r="K46">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M46" s="2">
         <v>44750.65481481481</v>
@@ -2865,21 +2860,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BAKİXANOV FİLİALİ (ADM000007) 24/7</t>
+          <t>XZM-XACMAZ SOBESİ (K0100224)</t>
         </is>
       </c>
       <c r="B47" s="2">
-        <v>44750.40862268519</v>
+        <v>44750.44690972222</v>
       </c>
       <c r="C47" s="2">
-        <v>44750.64789351852</v>
+        <v>44750.64831018519</v>
       </c>
       <c r="D47" s="2">
-        <v>44748.49930555555</v>
+        <v>44735.45277777778</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2892,6 +2887,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="K47">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M47" s="2">
         <v>44750.65481481481</v>
@@ -2915,21 +2915,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XZM-XACMAZ SOBESİ (K0100224)</t>
+          <t>K2-BAKI PROBOSIYA IDARESI (K0100283)</t>
         </is>
       </c>
       <c r="B48" s="2">
-        <v>44750.44690972222</v>
+        <v>44750.4605787037</v>
       </c>
       <c r="C48" s="2">
-        <v>44750.64831018519</v>
+        <v>44750.64858796296</v>
       </c>
       <c r="D48" s="2">
-        <v>44735.45277777778</v>
+        <v>44741.44513888889</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2958,10 +2958,10 @@
         </is>
       </c>
       <c r="K48">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M48" s="2">
         <v>44750.65481481481</v>
@@ -2970,21 +2970,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>K2-BAKI PROBOSIYA IDARESI (K0100283)</t>
+          <t>LEXUS SM (ADM000003)</t>
         </is>
       </c>
       <c r="B49" s="2">
-        <v>44750.4605787037</v>
+        <v>44750.46435185186</v>
       </c>
       <c r="C49" s="2">
-        <v>44750.64858796296</v>
+        <v>44750.64673611111</v>
       </c>
       <c r="D49" s="2">
-        <v>44741.44513888889</v>
+        <v>44746.39861111112</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2997,11 +2997,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3013,10 +3008,10 @@
         </is>
       </c>
       <c r="K49">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M49" s="2">
         <v>44750.65481481481</v>
@@ -3025,21 +3020,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LEXUS SM (ADM000003)</t>
+          <t>Iqtisadi ITKM (K0100538)</t>
         </is>
       </c>
       <c r="B50" s="2">
-        <v>44750.46435185186</v>
+        <v>44750.465</v>
       </c>
       <c r="C50" s="2">
-        <v>44750.64673611111</v>
+        <v>44750.6475</v>
       </c>
       <c r="D50" s="2">
-        <v>44746.39861111112</v>
+        <v>44749.51458333334</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3063,10 +3058,10 @@
         </is>
       </c>
       <c r="K50">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M50" s="2">
         <v>44750.65481481481</v>
@@ -3075,21 +3070,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Iqtisadi ITKM (K0100538)</t>
+          <t>Yardimli branch (K0175011)</t>
         </is>
       </c>
       <c r="B51" s="2">
-        <v>44750.465</v>
+        <v>44750.4678587963</v>
       </c>
       <c r="C51" s="2">
-        <v>44750.6475</v>
+        <v>44750.64763888888</v>
       </c>
       <c r="D51" s="2">
-        <v>44749.51458333334</v>
+        <v>44743.36944444444</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>621</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3113,10 +3108,10 @@
         </is>
       </c>
       <c r="K51">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M51" s="2">
         <v>44750.65481481481</v>
@@ -3125,21 +3120,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Yardimli branch (K0175011)</t>
+          <t>Az.Dövlet Pedoqoji Universiteti (K0100512)</t>
         </is>
       </c>
       <c r="B52" s="2">
-        <v>44750.4678587963</v>
+        <v>44750.50019675925</v>
       </c>
       <c r="C52" s="2">
-        <v>44750.64763888888</v>
+        <v>44750.64810185185</v>
       </c>
       <c r="D52" s="2">
-        <v>44743.36944444444</v>
+        <v>44743.62638888889</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3163,10 +3158,10 @@
         </is>
       </c>
       <c r="K52">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M52" s="2">
         <v>44750.65481481481</v>
@@ -3175,21 +3170,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Az.Dövlet Pedoqoji Universiteti (K0100512)</t>
+          <t>SZM- BALAKEN ASAN SHOBE (K0100387)</t>
         </is>
       </c>
       <c r="B53" s="2">
-        <v>44750.50019675925</v>
+        <v>44750.51119212963</v>
       </c>
       <c r="C53" s="2">
-        <v>44750.64810185185</v>
+        <v>44750.64775462963</v>
       </c>
       <c r="D53" s="2">
-        <v>44743.62638888889</v>
+        <v>44749.60416666667</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3202,6 +3197,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="K53">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M53" s="2">
         <v>44750.65481481481</v>
@@ -3225,21 +3225,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SZM- BALAKEN ASAN SHOBE (K0100387)</t>
+          <t>Daskesen branch (K0100963)</t>
         </is>
       </c>
       <c r="B54" s="2">
-        <v>44750.51119212963</v>
+        <v>44750.51225694444</v>
       </c>
       <c r="C54" s="2">
-        <v>44750.64775462963</v>
+        <v>44750.64740740741</v>
       </c>
       <c r="D54" s="2">
-        <v>44749.60416666667</v>
+        <v>44748.56111111111</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="K54">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M54" s="2">
         <v>44750.65481481481</v>
@@ -3280,21 +3280,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Daskesen branch (K0100963)</t>
+          <t>Cabrayil branch (K0188011)</t>
         </is>
       </c>
       <c r="B55" s="2">
-        <v>44750.51225694444</v>
+        <v>44750.51862268518</v>
       </c>
       <c r="C55" s="2">
-        <v>44750.64740740741</v>
+        <v>44750.64844907407</v>
       </c>
       <c r="D55" s="2">
-        <v>44748.56111111111</v>
+        <v>44749.51527777778</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3307,11 +3307,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3323,10 +3318,10 @@
         </is>
       </c>
       <c r="K55">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M55" s="2">
         <v>44750.65481481481</v>
@@ -3335,21 +3330,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cabrayil branch (K0188011)</t>
+          <t>Xezer Deniz Gemiçilik (K0100501)</t>
         </is>
       </c>
       <c r="B56" s="2">
-        <v>44750.51862268518</v>
+        <v>44750.52569444444</v>
       </c>
       <c r="C56" s="2">
-        <v>44750.64844907407</v>
+        <v>44750.64784722222</v>
       </c>
       <c r="D56" s="2">
-        <v>44749.51527777778</v>
+        <v>44747.59375</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>447</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3373,10 +3368,10 @@
         </is>
       </c>
       <c r="K56">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M56" s="2">
         <v>44750.65481481481</v>
@@ -3385,21 +3380,21 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Xezer Deniz Gemiçilik (K0100501)</t>
+          <t>Sumqayit branch (K0125014)</t>
         </is>
       </c>
       <c r="B57" s="2">
-        <v>44750.52569444444</v>
+        <v>44750.54615740741</v>
       </c>
       <c r="C57" s="2">
-        <v>44750.64784722222</v>
+        <v>44750.64738425926</v>
       </c>
       <c r="D57" s="2">
-        <v>44747.59375</v>
+        <v>44747.68680555555</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>312</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3423,10 +3418,10 @@
         </is>
       </c>
       <c r="K57">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M57" s="2">
         <v>44750.65481481481</v>
@@ -3435,21 +3430,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BNZM-AGCABEDİ ASAN SHOBE (K0100201)</t>
+          <t>GZM- Mingecevir branch (K0129013)</t>
         </is>
       </c>
       <c r="B58" s="2">
-        <v>44750.53258101852</v>
+        <v>44750.62048611111</v>
       </c>
       <c r="C58" s="2">
-        <v>44750.64788194445</v>
+        <v>44750.63425925926</v>
       </c>
       <c r="D58" s="2">
-        <v>44746.53263888889</v>
+        <v>44749.65347222222</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>316</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3462,45 +3457,40 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K58">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M58" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SABUNCU FİLİALİ (ADM120001)</t>
+          <t>Sahbuz branch (K0134002)</t>
         </is>
       </c>
       <c r="B59" s="2">
-        <v>44750.54303240741</v>
+        <v>44750.64986111112</v>
       </c>
       <c r="C59" s="2">
-        <v>44750.64759259259</v>
+        <v>44750.65710648148</v>
       </c>
       <c r="D59" s="2">
-        <v>44750.54791666666</v>
+        <v>44750.65208333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3509,7 +3499,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3517,6 +3507,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3524,42 +3519,42 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K59">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M59" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sumqayit branch (K0125014)</t>
+          <t>Agdas branch (K0160012)</t>
         </is>
       </c>
       <c r="B60" s="2">
-        <v>44750.54615740741</v>
+        <v>44750.6520949074</v>
       </c>
       <c r="C60" s="2">
-        <v>44750.64738425926</v>
+        <v>44750.65631944445</v>
       </c>
       <c r="D60" s="2">
-        <v>44747.68680555555</v>
+        <v>44749.35902777778</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>434</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3574,37 +3569,37 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K60">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M60" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GZM- Mingecevir branch (K0129013)</t>
+          <t>Beyleqan branch (K0140011)</t>
         </is>
       </c>
       <c r="B61" s="2">
-        <v>44750.62048611111</v>
+        <v>44750.63945601851</v>
       </c>
       <c r="C61" s="2">
-        <v>44750.63425925926</v>
+        <v>44750.65671296296</v>
       </c>
       <c r="D61" s="2">
-        <v>44749.65347222222</v>
+        <v>44747.45138888889</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>979</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3614,24 +3609,24 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Unknown error</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K61">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M61" s="2">
         <v>44750.65822916667</v>
@@ -3640,31 +3635,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sirvan branch (K0141011)</t>
+          <t>K1-Bineqedi branch (K0100978) 24/7</t>
         </is>
       </c>
       <c r="B62" s="2">
-        <v>44750.6415625</v>
+        <v>44750.65123842593</v>
       </c>
       <c r="C62" s="2">
-        <v>44750.6580324074</v>
+        <v>44750.65789351852</v>
       </c>
       <c r="D62" s="2">
-        <v>44750.65277777778</v>
+        <v>44746.49027777778</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Paper end</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Works</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3674,14 +3674,14 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K62">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M62" s="2">
         <v>44750.65822916667</v>
@@ -3690,36 +3690,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sahbuz branch (K0134002)</t>
+          <t>Sabran branch (K0158011)</t>
         </is>
       </c>
       <c r="B63" s="2">
-        <v>44750.64986111112</v>
+        <v>44750.64643518519</v>
       </c>
       <c r="C63" s="2">
-        <v>44750.65710648148</v>
+        <v>44750.65670138889</v>
       </c>
       <c r="D63" s="2">
-        <v>44750.65208333333</v>
+        <v>44748.39791666667</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>271</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Works</t>
+          <t>Almost out of paper</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3729,14 +3724,14 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K63">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M63" s="2">
         <v>44750.65822916667</v>
@@ -3745,31 +3740,31 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Agdas branch (K0160012)</t>
+          <t>Nizami branch (K0113003)</t>
         </is>
       </c>
       <c r="B64" s="2">
-        <v>44750.6520949074</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="C64" s="2">
-        <v>44750.65631944445</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="D64" s="2">
-        <v>44749.35902777778</v>
+        <v>44750.48541666666</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>272</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Almost out of paper</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3779,14 +3774,14 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K64">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M64" s="2">
         <v>44750.65822916667</v>
@@ -3795,36 +3790,31 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NOT 35 SAYLI (N0035011)</t>
+          <t>Kurdemir branch (K0157012)</t>
         </is>
       </c>
       <c r="B65" s="2">
-        <v>44750.54600694445</v>
+        <v>44750.6456712963</v>
       </c>
       <c r="C65" s="2">
-        <v>44750.65688657407</v>
+        <v>44750.66913194444</v>
       </c>
       <c r="D65" s="2">
-        <v>44742.52708333333</v>
+        <v>44750.66458333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Unknown error</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Works</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3834,47 +3824,47 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M65" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140011)</t>
+          <t>Beyleqan branch (K0140012)</t>
         </is>
       </c>
       <c r="B66" s="2">
-        <v>44750.63945601851</v>
+        <v>44750.66349537037</v>
       </c>
       <c r="C66" s="2">
-        <v>44750.65671296296</v>
+        <v>44750.6672337963</v>
       </c>
       <c r="D66" s="2">
-        <v>44747.45138888889</v>
+        <v>44748.36041666666</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>660</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Unknown error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3884,37 +3874,37 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M66" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>K1-Bineqedi branch (K0100978) 24/7</t>
+          <t>GZM-Gence branch (K0127012)</t>
         </is>
       </c>
       <c r="B67" s="2">
-        <v>44750.65123842593</v>
+        <v>44750.60032407408</v>
       </c>
       <c r="C67" s="2">
-        <v>44750.65789351852</v>
+        <v>44750.66859953704</v>
       </c>
       <c r="D67" s="2">
-        <v>44746.49027777778</v>
+        <v>44749.44652777778</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3924,12 +3914,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Paper end</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3943,33 +3933,33 @@
         </is>
       </c>
       <c r="K67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M67" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sabran branch (K0158011)</t>
+          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
         </is>
       </c>
       <c r="B68" s="2">
-        <v>44750.64643518519</v>
+        <v>44750.41467592593</v>
       </c>
       <c r="C68" s="2">
-        <v>44750.65670138889</v>
+        <v>44750.66907407407</v>
       </c>
       <c r="D68" s="2">
-        <v>44748.39791666667</v>
+        <v>44736.46180555556</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3979,7 +3969,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Almost out of paper</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Works</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3993,33 +3988,33 @@
         </is>
       </c>
       <c r="K68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M68" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nizami branch (K0113003)</t>
+          <t>Quba branch (K0165014)</t>
         </is>
       </c>
       <c r="B69" s="2">
-        <v>44750.65626157407</v>
+        <v>44750.57202546296</v>
       </c>
       <c r="C69" s="2">
-        <v>44750.65626157407</v>
+        <v>44750.66010416667</v>
       </c>
       <c r="D69" s="2">
-        <v>44750.48541666666</v>
+        <v>44750.65763888889</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4029,47 +4024,47 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Almost out of paper</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Quba branch (K0165014)</t>
+          <t>BNZM-Beylaqan Aqrolizinq (K0100600)</t>
         </is>
       </c>
       <c r="B70" s="2">
-        <v>44750.57199074074</v>
+        <v>44750.57938657407</v>
       </c>
       <c r="C70" s="2">
-        <v>44750.65694444445</v>
+        <v>44750.66106481482</v>
       </c>
       <c r="D70" s="2">
-        <v>44748.52569444444</v>
+        <v>44750.65833333333</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4084,38 +4079,38 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kurdemir branch (K0157012)</t>
+          <t>Quba branch (K0165012)</t>
         </is>
       </c>
       <c r="B71" s="2">
-        <v>44750.6456712963</v>
+        <v>44750.64157407408</v>
       </c>
       <c r="C71" s="2">
-        <v>44750.66913194444</v>
+        <v>44750.66173611111</v>
       </c>
       <c r="D71" s="2">
-        <v>44750.66458333333</v>
+        <v>44750.65902777778</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4124,7 +4119,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4134,7 +4129,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4149,32 +4144,32 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140012)</t>
+          <t>Lenkeran branch (K0100999)</t>
         </is>
       </c>
       <c r="B72" s="2">
-        <v>44750.66349537037</v>
+        <v>44750.66299768518</v>
       </c>
       <c r="C72" s="2">
-        <v>44750.6672337963</v>
+        <v>44750.67922453704</v>
       </c>
       <c r="D72" s="2">
-        <v>44748.36041666666</v>
+        <v>44750.67222222222</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4199,32 +4194,32 @@
         <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127012)</t>
+          <t>K1- 1 SAYLİ DOST MERKEZİ (K0100404)</t>
         </is>
       </c>
       <c r="B73" s="2">
-        <v>44750.60032407408</v>
+        <v>44750.66702546296</v>
       </c>
       <c r="C73" s="2">
-        <v>44750.66859953704</v>
+        <v>44750.67861111111</v>
       </c>
       <c r="D73" s="2">
-        <v>44749.44652777778</v>
+        <v>44735.45833333333</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4234,7 +4229,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4244,7 +4239,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K73">
@@ -4254,32 +4249,32 @@
         <v>0</v>
       </c>
       <c r="M73" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
+          <t>NMR-Ordubad branch (K0131011)</t>
         </is>
       </c>
       <c r="B74" s="2">
-        <v>44750.41467592593</v>
+        <v>44750.66818287037</v>
       </c>
       <c r="C74" s="2">
-        <v>44750.66907407407</v>
+        <v>44750.67663194444</v>
       </c>
       <c r="D74" s="2">
-        <v>44736.46180555556</v>
+        <v>44749.62083333333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4299,7 +4294,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K74">
@@ -4309,32 +4304,32 @@
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Goygol branch (K0183011)</t>
+          <t>Merkez branch (K0102012)</t>
         </is>
       </c>
       <c r="B75" s="2">
-        <v>44750.55787037037</v>
+        <v>44750.67278935186</v>
       </c>
       <c r="C75" s="2">
-        <v>44750.66900462963</v>
+        <v>44750.67956018519</v>
       </c>
       <c r="D75" s="2">
-        <v>44746.67222222222</v>
+        <v>44749.39097222222</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4349,7 +4344,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K75">
@@ -4359,7 +4354,372 @@
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Gence Kart Merkezi branch (K0206011)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44750.67733796296</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44750.67946759259</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44749.39652777778</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Stack Overflow</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>44750.67972222222</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GZM-GOYGOL AQROLİZİNQ (K0100281)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44750.49292824074</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44750.67943287037</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44747.71111111112</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>44750.67972222222</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Menzil Insaat Dövlet agentliyi. MIDA (K0100564)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44750.67797453704</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44750.67940972222</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44746.55486111112</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
+        <v>44750.67972222222</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TZM-TOVUZ ASAN SHOBE (K0100206)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44750.58619212963</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44750.67873842592</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44787.53263888889</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>44750.67972222222</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Gedebey branch (K0181012)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44750.59247685185</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44750.67920138889</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44743.41041666667</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>44750.67972222222</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ABSERON FİLİAL (ADM123281)</t>
+        </is>
+      </c>
+      <c r="B81" s="2">
+        <v>44750.5946875</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44750.6784375</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44750.45763888889</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>44750.67972222222</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Baki Dövlet Universiteti Esas korpus (K0100506)</t>
+        </is>
+      </c>
+      <c r="B82" s="2">
+        <v>44750.59584490741</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44750.67902777778</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44747.54236111111</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>44750.67972222222</v>
       </c>
     </row>
   </sheetData>

--- a/last_problem.xlsx
+++ b/last_problem.xlsx
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <v>44750.65412037037</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="K3">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L3">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M3" s="2">
         <v>44750.65481481481</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="K4">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2">
         <v>44750.65481481481</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="K5">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2">
         <v>44750.65481481481</v>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="K6">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2">
         <v>44750.65481481481</v>
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="K7">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2">
         <v>44750.65481481481</v>
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="K8">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2">
         <v>44750.65481481481</v>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="K9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2">
         <v>44750.65481481481</v>
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="K10">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M10" s="2">
         <v>44750.65481481481</v>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="K11">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2">
         <v>44750.65481481481</v>
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="K12">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M12" s="2">
         <v>44750.65481481481</v>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="K13">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M13" s="2">
         <v>44750.65481481481</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="K14">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M14" s="2">
         <v>44750.65481481481</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M15" s="2">
         <v>44750.65481481481</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="K16">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2">
         <v>44750.65481481481</v>
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="K17">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M17" s="2">
         <v>44750.65481481481</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="K18">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M18" s="2">
         <v>44750.65481481481</v>
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="K19">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M19" s="2">
         <v>44750.65481481481</v>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="K20">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M20" s="2">
         <v>44750.65481481481</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="K21">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M21" s="2">
         <v>44750.65481481481</v>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="K22">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M22" s="2">
         <v>44750.65481481481</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="K23">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M23" s="2">
         <v>44750.65481481481</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="K24">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M24" s="2">
         <v>44750.65481481481</v>
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="K25">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M25" s="2">
         <v>44750.65481481481</v>
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="K26">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M26" s="2">
         <v>44750.65481481481</v>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="K27">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M27" s="2">
         <v>44750.65481481481</v>
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="K28">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M28" s="2">
         <v>44750.65481481481</v>
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="K29">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M29" s="2">
         <v>44750.65481481481</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="K30">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M30" s="2">
         <v>44750.65481481481</v>
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="K31">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M31" s="2">
         <v>44750.65481481481</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="K32">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M32" s="2">
         <v>44750.65481481481</v>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="K33">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M33" s="2">
         <v>44750.65481481481</v>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="K34">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M34" s="2">
         <v>44750.65481481481</v>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="K35">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M35" s="2">
         <v>44750.65481481481</v>
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="K36">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M36" s="2">
         <v>44750.65481481481</v>
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="K37">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M37" s="2">
         <v>44750.65481481481</v>
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="K38">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M38" s="2">
         <v>44750.65481481481</v>
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="K39">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M39" s="2">
         <v>44750.65481481481</v>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="K40">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M40" s="2">
         <v>44750.65481481481</v>
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="K41">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M41" s="2">
         <v>44750.65481481481</v>
@@ -2648,10 +2648,10 @@
         </is>
       </c>
       <c r="K42">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M42" s="2">
         <v>44750.65481481481</v>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="K43">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M43" s="2">
         <v>44750.65481481481</v>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="K44">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M44" s="2">
         <v>44750.65481481481</v>
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="K45">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M45" s="2">
         <v>44750.65481481481</v>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="K46">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M46" s="2">
         <v>44750.65481481481</v>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="K47">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M47" s="2">
         <v>44750.65481481481</v>
@@ -2958,10 +2958,10 @@
         </is>
       </c>
       <c r="K48">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M48" s="2">
         <v>44750.65481481481</v>
@@ -3008,10 +3008,10 @@
         </is>
       </c>
       <c r="K49">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L49">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M49" s="2">
         <v>44750.65481481481</v>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="K50">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M50" s="2">
         <v>44750.65481481481</v>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="K51">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M51" s="2">
         <v>44750.65481481481</v>
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="K52">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L52">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M52" s="2">
         <v>44750.65481481481</v>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="K53">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M53" s="2">
         <v>44750.65481481481</v>
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="K54">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L54">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M54" s="2">
         <v>44750.65481481481</v>
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="K55">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M55" s="2">
         <v>44750.65481481481</v>
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="K56">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M56" s="2">
         <v>44750.65481481481</v>
@@ -3418,10 +3418,10 @@
         </is>
       </c>
       <c r="K57">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L57">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M57" s="2">
         <v>44750.65481481481</v>
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="K58">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M58" s="2">
         <v>44750.65822916667</v>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="K59">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M59" s="2">
         <v>44750.65822916667</v>
@@ -3535,31 +3535,31 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Agdas branch (K0160012)</t>
+          <t>Beyleqan branch (K0140011)</t>
         </is>
       </c>
       <c r="B60" s="2">
-        <v>44750.6520949074</v>
+        <v>44750.63945601851</v>
       </c>
       <c r="C60" s="2">
-        <v>44750.65631944445</v>
+        <v>44750.65671296296</v>
       </c>
       <c r="D60" s="2">
-        <v>44749.35902777778</v>
+        <v>44747.45138888889</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>979</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Unknown error</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3569,14 +3569,14 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K60">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M60" s="2">
         <v>44750.65822916667</v>
@@ -3585,21 +3585,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140011)</t>
+          <t>K1-Bineqedi branch (K0100978) 24/7</t>
         </is>
       </c>
       <c r="B61" s="2">
-        <v>44750.63945601851</v>
+        <v>44750.65123842593</v>
       </c>
       <c r="C61" s="2">
-        <v>44750.65671296296</v>
+        <v>44750.65789351852</v>
       </c>
       <c r="D61" s="2">
-        <v>44747.45138888889</v>
+        <v>44746.49027777778</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3609,7 +3609,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Unknown error</t>
+          <t>Paper end</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Works</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3623,10 +3628,10 @@
         </is>
       </c>
       <c r="K61">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M61" s="2">
         <v>44750.65822916667</v>
@@ -3635,21 +3640,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>K1-Bineqedi branch (K0100978) 24/7</t>
+          <t>Sabran branch (K0158011)</t>
         </is>
       </c>
       <c r="B62" s="2">
-        <v>44750.65123842593</v>
+        <v>44750.64643518519</v>
       </c>
       <c r="C62" s="2">
-        <v>44750.65789351852</v>
+        <v>44750.65670138889</v>
       </c>
       <c r="D62" s="2">
-        <v>44746.49027777778</v>
+        <v>44748.39791666667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>271</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3659,12 +3664,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Paper end</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Works</t>
+          <t>Almost out of paper</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="K62">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M62" s="2">
         <v>44750.65822916667</v>
@@ -3690,21 +3690,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sabran branch (K0158011)</t>
+          <t>Nizami branch (K0113003)</t>
         </is>
       </c>
       <c r="B63" s="2">
-        <v>44750.64643518519</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="C63" s="2">
-        <v>44750.65670138889</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="D63" s="2">
-        <v>44748.39791666667</v>
+        <v>44750.48541666666</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>272</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3728,10 +3728,10 @@
         </is>
       </c>
       <c r="K63">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L63">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M63" s="2">
         <v>44750.65822916667</v>
@@ -3740,31 +3740,31 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nizami branch (K0113003)</t>
+          <t>Kurdemir branch (K0157012)</t>
         </is>
       </c>
       <c r="B64" s="2">
-        <v>44750.65626157407</v>
+        <v>44750.6456712963</v>
       </c>
       <c r="C64" s="2">
-        <v>44750.65626157407</v>
+        <v>44750.66913194444</v>
       </c>
       <c r="D64" s="2">
-        <v>44750.48541666666</v>
+        <v>44750.66458333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Almost out of paper</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3774,42 +3774,42 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M64" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kurdemir branch (K0157012)</t>
+          <t>Beyleqan branch (K0140012)</t>
         </is>
       </c>
       <c r="B65" s="2">
-        <v>44750.6456712963</v>
+        <v>44750.66349537037</v>
       </c>
       <c r="C65" s="2">
-        <v>44750.66913194444</v>
+        <v>44750.6672337963</v>
       </c>
       <c r="D65" s="2">
-        <v>44750.66458333333</v>
+        <v>44748.36041666666</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>660</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="K65">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M65" s="2">
         <v>44750.66956018518</v>
@@ -3840,26 +3840,26 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140012)</t>
+          <t>GZM-Gence branch (K0127012)</t>
         </is>
       </c>
       <c r="B66" s="2">
-        <v>44750.66349537037</v>
+        <v>44750.60032407408</v>
       </c>
       <c r="C66" s="2">
-        <v>44750.6672337963</v>
+        <v>44750.66859953704</v>
       </c>
       <c r="D66" s="2">
-        <v>44748.36041666666</v>
+        <v>44749.44652777778</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3867,6 +3867,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3874,14 +3879,14 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K66">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M66" s="2">
         <v>44750.66956018518</v>
@@ -3890,21 +3895,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127012)</t>
+          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
         </is>
       </c>
       <c r="B67" s="2">
-        <v>44750.60032407408</v>
+        <v>44750.41467592593</v>
       </c>
       <c r="C67" s="2">
-        <v>44750.66859953704</v>
+        <v>44750.66907407407</v>
       </c>
       <c r="D67" s="2">
-        <v>44749.44652777778</v>
+        <v>44736.46180555556</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3919,7 +3924,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3933,10 +3938,10 @@
         </is>
       </c>
       <c r="K67">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M67" s="2">
         <v>44750.66956018518</v>
@@ -3945,21 +3950,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
+          <t>Quba branch (K0165014)</t>
         </is>
       </c>
       <c r="B68" s="2">
-        <v>44750.41467592593</v>
+        <v>44750.57202546296</v>
       </c>
       <c r="C68" s="2">
-        <v>44750.66907407407</v>
+        <v>44750.66010416667</v>
       </c>
       <c r="D68" s="2">
-        <v>44736.46180555556</v>
+        <v>44750.65763888889</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3972,19 +3977,14 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K68">
@@ -3994,23 +3994,23 @@
         <v>15</v>
       </c>
       <c r="M68" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Quba branch (K0165014)</t>
+          <t>Quba branch (K0165012)</t>
         </is>
       </c>
       <c r="B69" s="2">
-        <v>44750.57202546296</v>
+        <v>44750.64157407408</v>
       </c>
       <c r="C69" s="2">
-        <v>44750.66010416667</v>
+        <v>44750.66173611111</v>
       </c>
       <c r="D69" s="2">
-        <v>44750.65763888889</v>
+        <v>44750.65902777778</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4038,10 +4038,10 @@
         </is>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M69" s="2">
         <v>44750.67972222222</v>
@@ -4050,17 +4050,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BNZM-Beylaqan Aqrolizinq (K0100600)</t>
+          <t>Lenkeran branch (K0100999)</t>
         </is>
       </c>
       <c r="B70" s="2">
-        <v>44750.57938657407</v>
+        <v>44750.66299768518</v>
       </c>
       <c r="C70" s="2">
-        <v>44750.66106481482</v>
+        <v>44750.67922453704</v>
       </c>
       <c r="D70" s="2">
-        <v>44750.65833333333</v>
+        <v>44750.67222222222</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M70" s="2">
         <v>44750.67972222222</v>
@@ -4100,26 +4100,26 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Quba branch (K0165012)</t>
+          <t>Merkez branch (K0102012)</t>
         </is>
       </c>
       <c r="B71" s="2">
-        <v>44750.64157407408</v>
+        <v>44750.67278935186</v>
       </c>
       <c r="C71" s="2">
-        <v>44750.66173611111</v>
+        <v>44750.67956018519</v>
       </c>
       <c r="D71" s="2">
-        <v>44750.65902777778</v>
+        <v>44749.39097222222</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M71" s="2">
         <v>44750.67972222222</v>
@@ -4150,26 +4150,26 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lenkeran branch (K0100999)</t>
+          <t>Gence Kart Merkezi branch (K0206011)</t>
         </is>
       </c>
       <c r="B72" s="2">
-        <v>44750.66299768518</v>
+        <v>44750.67733796296</v>
       </c>
       <c r="C72" s="2">
-        <v>44750.67922453704</v>
+        <v>44750.67946759259</v>
       </c>
       <c r="D72" s="2">
-        <v>44750.67222222222</v>
+        <v>44749.39652777778</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>733</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M72" s="2">
         <v>44750.67972222222</v>
@@ -4200,26 +4200,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>K1- 1 SAYLİ DOST MERKEZİ (K0100404)</t>
+          <t>Menzil Insaat Dövlet agentliyi. MIDA (K0100564)</t>
         </is>
       </c>
       <c r="B73" s="2">
-        <v>44750.66702546296</v>
+        <v>44750.67797453704</v>
       </c>
       <c r="C73" s="2">
-        <v>44750.67861111111</v>
+        <v>44750.67940972222</v>
       </c>
       <c r="D73" s="2">
-        <v>44735.45833333333</v>
+        <v>44746.55486111112</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>445</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4239,14 +4239,14 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M73" s="2">
         <v>44750.67972222222</v>
@@ -4255,26 +4255,26 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NMR-Ordubad branch (K0131011)</t>
+          <t>TZM-TOVUZ ASAN SHOBE (K0100206)</t>
         </is>
       </c>
       <c r="B74" s="2">
-        <v>44750.66818287037</v>
+        <v>44750.58619212963</v>
       </c>
       <c r="C74" s="2">
-        <v>44750.67663194444</v>
+        <v>44750.67873842592</v>
       </c>
       <c r="D74" s="2">
-        <v>44749.62083333333</v>
+        <v>44787.53263888889</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>428</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4294,14 +4294,14 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M74" s="2">
         <v>44750.67972222222</v>
@@ -4310,26 +4310,26 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Merkez branch (K0102012)</t>
+          <t>Gedebey branch (K0181012)</t>
         </is>
       </c>
       <c r="B75" s="2">
-        <v>44750.67278935186</v>
+        <v>44750.59247685185</v>
       </c>
       <c r="C75" s="2">
-        <v>44750.67956018519</v>
+        <v>44750.67920138889</v>
       </c>
       <c r="D75" s="2">
-        <v>44749.39097222222</v>
+        <v>44743.41041666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>873</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4344,14 +4344,14 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M75" s="2">
         <v>44750.67972222222</v>
@@ -4360,26 +4360,26 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gence Kart Merkezi branch (K0206011)</t>
+          <t>Quba branch (K0165011)</t>
         </is>
       </c>
       <c r="B76" s="2">
-        <v>44750.67733796296</v>
+        <v>44750.66194444444</v>
       </c>
       <c r="C76" s="2">
-        <v>44750.67946759259</v>
+        <v>44750.66246527778</v>
       </c>
       <c r="D76" s="2">
-        <v>44749.39652777778</v>
+        <v>44750.65972222222</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4404,32 +4404,32 @@
         <v>0</v>
       </c>
       <c r="M76" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GZM-GOYGOL AQROLİZİNQ (K0100281)</t>
+          <t>Ucar branch (K0177013)</t>
         </is>
       </c>
       <c r="B77" s="2">
-        <v>44750.49292824074</v>
+        <v>44750.68534722222</v>
       </c>
       <c r="C77" s="2">
-        <v>44750.67943287037</v>
+        <v>44750.68966435186</v>
       </c>
       <c r="D77" s="2">
-        <v>44747.71111111112</v>
+        <v>44750.68472222222</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4437,11 +4437,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4449,7 +4444,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K77">
@@ -4459,32 +4454,32 @@
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Menzil Insaat Dövlet agentliyi. MIDA (K0100564)</t>
+          <t>GZM-Mingecevir branch (K0129011)</t>
         </is>
       </c>
       <c r="B78" s="2">
-        <v>44750.67797453704</v>
+        <v>44750.68597222222</v>
       </c>
       <c r="C78" s="2">
-        <v>44750.67940972222</v>
+        <v>44750.68868055556</v>
       </c>
       <c r="D78" s="2">
-        <v>44746.55486111112</v>
+        <v>44750.42361111111</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>366</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4492,11 +4487,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4504,7 +4494,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K78">
@@ -4514,32 +4504,32 @@
         <v>0</v>
       </c>
       <c r="M78" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TZM-TOVUZ ASAN SHOBE (K0100206)</t>
+          <t>Qubadli branch (K0126011)</t>
         </is>
       </c>
       <c r="B79" s="2">
-        <v>44750.58619212963</v>
+        <v>44750.68748842593</v>
       </c>
       <c r="C79" s="2">
-        <v>44750.67873842592</v>
+        <v>44750.68958333333</v>
       </c>
       <c r="D79" s="2">
-        <v>44787.53263888889</v>
+        <v>44749.39166666666</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4547,11 +4537,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4559,7 +4544,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K79">
@@ -4569,32 +4554,32 @@
         <v>0</v>
       </c>
       <c r="M79" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gedebey branch (K0181012)</t>
+          <t>Samaxi branch (K0173012)</t>
         </is>
       </c>
       <c r="B80" s="2">
-        <v>44750.59247685185</v>
+        <v>44750.68784722222</v>
       </c>
       <c r="C80" s="2">
-        <v>44750.67920138889</v>
+        <v>44750.68982638889</v>
       </c>
       <c r="D80" s="2">
-        <v>44743.41041666667</v>
+        <v>44749.38125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>652</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4609,7 +4594,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K80">
@@ -4619,27 +4604,27 @@
         <v>0</v>
       </c>
       <c r="M80" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ABSERON FİLİAL (ADM123281)</t>
+          <t>Bravo-2 branch (K0207011)</t>
         </is>
       </c>
       <c r="B81" s="2">
-        <v>44750.5946875</v>
+        <v>44750.665625</v>
       </c>
       <c r="C81" s="2">
-        <v>44750.6784375</v>
+        <v>44750.68835648148</v>
       </c>
       <c r="D81" s="2">
-        <v>44750.45763888889</v>
+        <v>44750.41319444445</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>606</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4650,6 +4635,11 @@
       <c r="G81" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4669,27 +4659,27 @@
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Baki Dövlet Universiteti Esas korpus (K0100506)</t>
+          <t>Balaken branch (K0169012)</t>
         </is>
       </c>
       <c r="B82" s="2">
-        <v>44750.59584490741</v>
+        <v>44750.59835648148</v>
       </c>
       <c r="C82" s="2">
-        <v>44750.67902777778</v>
+        <v>44750.68993055556</v>
       </c>
       <c r="D82" s="2">
-        <v>44747.54236111111</v>
+        <v>44749.41736111111</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>116</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4719,7 +4709,112 @@
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>K2-2 saylı DOST mərkəzi (K0100405)</t>
+        </is>
+      </c>
+      <c r="B83" s="2">
+        <v>44750.60171296296</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44750.68846064815</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44729.51805555556</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>44750.69021990741</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Baki Mühendislik Universiteti Qafqaz (K0100513)</t>
+        </is>
+      </c>
+      <c r="B84" s="2">
+        <v>44750.60664351852</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44750.68959490741</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44749.48055555555</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>44750.69021990741</v>
       </c>
     </row>
   </sheetData>

--- a/last_problem.xlsx
+++ b/last_problem.xlsx
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="K2">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L2">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M2" s="2">
         <v>44750.65412037037</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2">
         <v>44750.65481481481</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="K4">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2">
         <v>44750.65481481481</v>
@@ -600,21 +600,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GZM - Gence branch (K0100198) 24/7</t>
+          <t>Lökbatan Gömrük 1 (K0100542)</t>
         </is>
       </c>
       <c r="B5" s="2">
-        <v>44744</v>
+        <v>44748</v>
       </c>
       <c r="C5" s="2">
-        <v>44744</v>
+        <v>44749</v>
       </c>
       <c r="D5" s="2">
-        <v>44744.41736111111</v>
+        <v>44746.46180555556</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="K5">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M5" s="2">
         <v>44750.65481481481</v>
@@ -655,21 +655,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lökbatan Gömrük 1 (K0100542)</t>
+          <t>Hava Limani Gomruk (K0100546)</t>
         </is>
       </c>
       <c r="B6" s="2">
-        <v>44748</v>
+        <v>44750.46755787038</v>
       </c>
       <c r="C6" s="2">
-        <v>44749</v>
+        <v>44750.4982175926</v>
       </c>
       <c r="D6" s="2">
-        <v>44746.46180555556</v>
+        <v>44733.63125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="K6">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2">
         <v>44750.65481481481</v>
@@ -710,21 +710,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hava Limani Gomruk (K0100546)</t>
+          <t>Masalli Aqrolizinq (K0100598)</t>
         </is>
       </c>
       <c r="B7" s="2">
-        <v>44750.46755787038</v>
+        <v>44750.54462962963</v>
       </c>
       <c r="C7" s="2">
-        <v>44750.4982175926</v>
+        <v>44750.54464120371</v>
       </c>
       <c r="D7" s="2">
-        <v>44733.63125</v>
+        <v>44748.59305555555</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -737,11 +737,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Disconnect</t>
@@ -753,10 +748,10 @@
         </is>
       </c>
       <c r="K7">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M7" s="2">
         <v>44750.65481481481</v>
@@ -765,21 +760,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Masalli Aqrolizinq (K0100598)</t>
+          <t>Baki Dövlet Universiteti 2 (K0100576)</t>
         </is>
       </c>
       <c r="B8" s="2">
-        <v>44750.54462962963</v>
+        <v>44750.54489583333</v>
       </c>
       <c r="C8" s="2">
-        <v>44750.54464120371</v>
+        <v>44750.54490740741</v>
       </c>
       <c r="D8" s="2">
-        <v>44748.59305555555</v>
+        <v>44749.55347222222</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -803,10 +798,10 @@
         </is>
       </c>
       <c r="K8">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M8" s="2">
         <v>44750.65481481481</v>
@@ -815,26 +810,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Baki Dövlet Universiteti 2 (K0100576)</t>
+          <t>TZM-Qazax Aqrolizinq (K0100615)</t>
         </is>
       </c>
       <c r="B9" s="2">
-        <v>44750.54489583333</v>
+        <v>44750.6278125</v>
       </c>
       <c r="C9" s="2">
-        <v>44750.54490740741</v>
+        <v>44750.63009259259</v>
       </c>
       <c r="D9" s="2">
-        <v>44749.55347222222</v>
+        <v>44747.52777777778</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -842,6 +837,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Disconnect</t>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="K9">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M9" s="2">
         <v>44750.65481481481</v>
@@ -865,26 +865,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TZM-Qazax Aqrolizinq (K0100615)</t>
+          <t>GZM-Gence branch (K0127014)</t>
         </is>
       </c>
       <c r="B10" s="2">
-        <v>44750.6278125</v>
+        <v>44748</v>
       </c>
       <c r="C10" s="2">
-        <v>44750.63009259259</v>
+        <v>44750.64756944445</v>
       </c>
       <c r="D10" s="2">
-        <v>44747.52777777778</v>
+        <v>44602.69583333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -892,14 +892,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -908,10 +903,10 @@
         </is>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2">
         <v>44750.65481481481</v>
@@ -920,17 +915,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127014)</t>
+          <t>Sabirabad branch (K0144013)</t>
         </is>
       </c>
       <c r="B11" s="2">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C11" s="2">
-        <v>44750.64756944445</v>
+        <v>44750.64863425925</v>
       </c>
       <c r="D11" s="2">
-        <v>44602.69583333333</v>
+        <v>44749.36736111112</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -939,7 +934,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -958,10 +953,10 @@
         </is>
       </c>
       <c r="K11">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M11" s="2">
         <v>44750.65481481481</v>
@@ -970,26 +965,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sabirabad branch (K0144013)</t>
+          <t>Semkir branch (K0147012)</t>
         </is>
       </c>
       <c r="B12" s="2">
-        <v>44749</v>
+        <v>44750.63377314815</v>
       </c>
       <c r="C12" s="2">
-        <v>44750.64863425925</v>
+        <v>44750.64693287037</v>
       </c>
       <c r="D12" s="2">
-        <v>44749.36736111112</v>
+        <v>44749.41041666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>527</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1008,10 +1003,10 @@
         </is>
       </c>
       <c r="K12">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M12" s="2">
         <v>44750.65481481481</v>
@@ -1020,26 +1015,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Semkir branch (K0147012)</t>
+          <t>NOT 22 SAYLI (N0022011)</t>
         </is>
       </c>
       <c r="B13" s="2">
-        <v>44750.63377314815</v>
+        <v>44749.69671296296</v>
       </c>
       <c r="C13" s="2">
-        <v>44750.64693287037</v>
+        <v>44750.64696759259</v>
       </c>
       <c r="D13" s="2">
-        <v>44749.41041666667</v>
+        <v>44735.45972222222</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1047,6 +1042,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1054,14 +1054,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K13">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M13" s="2">
         <v>44750.65481481481</v>
@@ -1070,21 +1070,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NOT 22 SAYLI (N0022011)</t>
+          <t>SZM-ZAQATALA AQROLİZİNQ (K0100409)</t>
         </is>
       </c>
       <c r="B14" s="2">
-        <v>44749.69671296296</v>
+        <v>44750.30384259259</v>
       </c>
       <c r="C14" s="2">
-        <v>44750.64696759259</v>
+        <v>44750.64436342593</v>
       </c>
       <c r="D14" s="2">
-        <v>44735.45972222222</v>
+        <v>44741.60277777778</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="K14">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M14" s="2">
         <v>44750.65481481481</v>
@@ -1125,21 +1125,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SZM-ZAQATALA AQROLİZİNQ (K0100409)</t>
+          <t>BİNƏQƏDİ QEYDİYYAT ŞÖBƏSİ (K0100946)</t>
         </is>
       </c>
       <c r="B15" s="2">
-        <v>44750.30384259259</v>
+        <v>44750.49460648149</v>
       </c>
       <c r="C15" s="2">
-        <v>44750.64436342593</v>
+        <v>44750.646875</v>
       </c>
       <c r="D15" s="2">
-        <v>44741.60277777778</v>
+        <v>44735.47083333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>361</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M15" s="2">
         <v>44750.65481481481</v>
@@ -1180,21 +1180,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BİNƏQƏDİ QEYDİYYAT ŞÖBƏSİ (K0100946)</t>
+          <t>7 SAYLI ASAN SHOBE (K0100246)</t>
         </is>
       </c>
       <c r="B16" s="2">
-        <v>44750.49460648149</v>
+        <v>44750.58130787037</v>
       </c>
       <c r="C16" s="2">
-        <v>44750.646875</v>
+        <v>44750.6475462963</v>
       </c>
       <c r="D16" s="2">
-        <v>44735.47083333333</v>
+        <v>44741.42916666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="K16">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M16" s="2">
         <v>44750.65481481481</v>
@@ -1235,21 +1235,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7 SAYLI ASAN SHOBE (K0100246)</t>
+          <t>Salyan Aqrolizinq (K0100610)</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>44750.58130787037</v>
+        <v>44750.58789351852</v>
       </c>
       <c r="C17" s="2">
-        <v>44750.6475462963</v>
+        <v>44750.64686342592</v>
       </c>
       <c r="D17" s="2">
-        <v>44741.42916666667</v>
+        <v>44734.4625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="K17">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M17" s="2">
         <v>44750.65481481481</v>
@@ -1290,21 +1290,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salyan Aqrolizinq (K0100610)</t>
+          <t>NOT 42 SAYLI (N0042011)</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>44750.58789351852</v>
+        <v>44750.59266203704</v>
       </c>
       <c r="C18" s="2">
-        <v>44750.64686342592</v>
+        <v>44750.64658564815</v>
       </c>
       <c r="D18" s="2">
-        <v>44734.4625</v>
+        <v>44743.56666666667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>240</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="K18">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M18" s="2">
         <v>44750.65481481481</v>
@@ -1345,21 +1345,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NOT 42 SAYLI (N0042011)</t>
+          <t>BAKI DENIZ LIMANI (K0100626)</t>
         </is>
       </c>
       <c r="B19" s="2">
         <v>44750.59266203704</v>
       </c>
       <c r="C19" s="2">
-        <v>44750.64658564815</v>
+        <v>44750.64811342592</v>
       </c>
       <c r="D19" s="2">
-        <v>44743.56666666667</v>
+        <v>44744.50277777778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="K19">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M19" s="2">
         <v>44750.65481481481</v>
@@ -1400,21 +1400,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAKI DENIZ LIMANI (K0100626)</t>
+          <t>Agstafa branch (K0100965)</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>44750.59266203704</v>
+        <v>44750.59538194444</v>
       </c>
       <c r="C20" s="2">
-        <v>44750.64811342592</v>
+        <v>44750.64828703704</v>
       </c>
       <c r="D20" s="2">
-        <v>44744.50277777778</v>
+        <v>44749.49166666667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>237</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="K20">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M20" s="2">
         <v>44750.65481481481</v>
@@ -1455,21 +1455,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Agstafa branch (K0100965)</t>
+          <t>IZM-Qebele Aqrolizinq (Unicom) (K0100599)</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>44750.59538194444</v>
+        <v>44750.59866898148</v>
       </c>
       <c r="C21" s="2">
-        <v>44750.64828703704</v>
+        <v>44750.64847222222</v>
       </c>
       <c r="D21" s="2">
-        <v>44749.49166666667</v>
+        <v>44736.56180555555</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>377</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="K21">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M21" s="2">
         <v>44750.65481481481</v>
@@ -1510,21 +1510,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IZM-Qebele Aqrolizinq (Unicom) (K0100599)</t>
+          <t>SNZM-NOT SİRVAN (N0Sir011)</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>44750.59866898148</v>
+        <v>44750.60513888889</v>
       </c>
       <c r="C22" s="2">
-        <v>44750.64847222222</v>
+        <v>44750.64715277778</v>
       </c>
       <c r="D22" s="2">
-        <v>44736.56180555555</v>
+        <v>44749.72083333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="K22">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L22">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M22" s="2">
         <v>44750.65481481481</v>
@@ -1565,21 +1565,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SNZM-NOT SİRVAN (N0Sir011)</t>
+          <t>Ismayilli branch (K0178013)</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>44750.60513888889</v>
+        <v>44750.60621527777</v>
       </c>
       <c r="C23" s="2">
-        <v>44750.64715277778</v>
+        <v>44750.64680555556</v>
       </c>
       <c r="D23" s="2">
-        <v>44749.72083333333</v>
+        <v>44746.72430555556</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>452</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="K23">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M23" s="2">
         <v>44750.65481481481</v>
@@ -1620,21 +1620,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ismayilli branch (K0178013)</t>
+          <t>LANDAU SCHOOI GENCLİK (K0100544)</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>44750.60621527777</v>
+        <v>44750.61438657407</v>
       </c>
       <c r="C24" s="2">
-        <v>44750.64680555556</v>
+        <v>44750.64649305555</v>
       </c>
       <c r="D24" s="2">
-        <v>44746.72430555556</v>
+        <v>44747.61805555556</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>397</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="K24">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L24">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M24" s="2">
         <v>44750.65481481481</v>
@@ -1675,21 +1675,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LANDAU SCHOOI GENCLİK (K0100544)</t>
+          <t>Zerdab branch (K0146013)</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>44750.61438657407</v>
+        <v>44750.61625</v>
       </c>
       <c r="C25" s="2">
-        <v>44750.64649305555</v>
+        <v>44750.64849537037</v>
       </c>
       <c r="D25" s="2">
-        <v>44747.61805555556</v>
+        <v>44747.525</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>649</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="K25">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M25" s="2">
         <v>44750.65481481481</v>
@@ -1730,21 +1730,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Zerdab branch (K0146013)</t>
+          <t>İZM-Göyçay branch (K0100960)</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>44750.61625</v>
+        <v>44750.6165625</v>
       </c>
       <c r="C26" s="2">
-        <v>44750.64849537037</v>
+        <v>44750.64744212963</v>
       </c>
       <c r="D26" s="2">
-        <v>44747.525</v>
+        <v>44750.57222222223</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="K26">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M26" s="2">
         <v>44750.65481481481</v>
@@ -1785,21 +1785,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>İZM-Göyçay branch (K0100960)</t>
+          <t>DOST MERKEZ 4 SAYLİ (K0100239)</t>
         </is>
       </c>
       <c r="B27" s="2">
-        <v>44750.6165625</v>
+        <v>44750.61762731482</v>
       </c>
       <c r="C27" s="2">
-        <v>44750.64744212963</v>
+        <v>44750.64679398148</v>
       </c>
       <c r="D27" s="2">
-        <v>44750.57222222223</v>
+        <v>44734.54652777778</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>256</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="K27">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M27" s="2">
         <v>44750.65481481481</v>
@@ -1840,21 +1840,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DOST MERKEZ 4 SAYLİ (K0100239)</t>
+          <t>YASAMAL QEYDİYYAT SÖBƏSİ (K0100935)</t>
         </is>
       </c>
       <c r="B28" s="2">
-        <v>44750.61762731482</v>
+        <v>44750.62152777778</v>
       </c>
       <c r="C28" s="2">
-        <v>44750.64679398148</v>
+        <v>44750.64834490741</v>
       </c>
       <c r="D28" s="2">
-        <v>44734.54652777778</v>
+        <v>44735.47986111111</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="K28">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M28" s="2">
         <v>44750.65481481481</v>
@@ -1895,21 +1895,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YASAMAL QEYDİYYAT SÖBƏSİ (K0100935)</t>
+          <t>SNZM-Neftcala branch (K0100954)</t>
         </is>
       </c>
       <c r="B29" s="2">
-        <v>44750.62152777778</v>
+        <v>44750.62189814815</v>
       </c>
       <c r="C29" s="2">
-        <v>44750.64834490741</v>
+        <v>44750.64712962963</v>
       </c>
       <c r="D29" s="2">
-        <v>44735.47986111111</v>
+        <v>44748.51527777778</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>377</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="K29">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M29" s="2">
         <v>44750.65481481481</v>
@@ -1950,21 +1950,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SNZM-Neftcala branch (K0100954)</t>
+          <t>SNZM-NOT SAATLİ (N0Sat011)</t>
         </is>
       </c>
       <c r="B30" s="2">
-        <v>44750.62189814815</v>
+        <v>44750.62281250001</v>
       </c>
       <c r="C30" s="2">
-        <v>44750.64712962963</v>
+        <v>44750.64739583334</v>
       </c>
       <c r="D30" s="2">
-        <v>44748.51527777778</v>
+        <v>44749.55833333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="K30">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M30" s="2">
         <v>44750.65481481481</v>
@@ -2005,21 +2005,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SNZM-NOT SAATLİ (N0Sat011)</t>
+          <t>IZM-Qebele branch (K0100987)</t>
         </is>
       </c>
       <c r="B31" s="2">
-        <v>44750.62281250001</v>
+        <v>44750.62314814815</v>
       </c>
       <c r="C31" s="2">
-        <v>44750.64739583334</v>
+        <v>44750.64827546296</v>
       </c>
       <c r="D31" s="2">
-        <v>44749.55833333333</v>
+        <v>44750.49930555555</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="K31">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M31" s="2">
         <v>44750.65481481481</v>
@@ -2060,21 +2060,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IZM-Qebele branch (K0100987)</t>
+          <t>Qazax branch (K0136013)</t>
         </is>
       </c>
       <c r="B32" s="2">
-        <v>44750.62314814815</v>
+        <v>44750.62836805556</v>
       </c>
       <c r="C32" s="2">
-        <v>44750.64827546296</v>
+        <v>44750.64681712963</v>
       </c>
       <c r="D32" s="2">
-        <v>44750.49930555555</v>
+        <v>44748.46875</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>452</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="K32">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M32" s="2">
         <v>44750.65481481481</v>
@@ -2115,21 +2115,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qazax branch (K0136013)</t>
+          <t>LZM-MASALLİ ASAN SHOBE (K0100272)</t>
         </is>
       </c>
       <c r="B33" s="2">
-        <v>44750.62836805556</v>
+        <v>44750.63533564815</v>
       </c>
       <c r="C33" s="2">
-        <v>44750.64681712963</v>
+        <v>44750.64693287037</v>
       </c>
       <c r="D33" s="2">
-        <v>44748.46875</v>
+        <v>44749.42152777778</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="K33">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L33">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M33" s="2">
         <v>44750.65481481481</v>
@@ -2170,21 +2170,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LZM-MASALLİ ASAN SHOBE (K0100272)</t>
+          <t>GZM-Gence branch (K0127015)</t>
         </is>
       </c>
       <c r="B34" s="2">
-        <v>44750.63533564815</v>
+        <v>44750.6378587963</v>
       </c>
       <c r="C34" s="2">
-        <v>44750.64693287037</v>
+        <v>44750.64744212963</v>
       </c>
       <c r="D34" s="2">
-        <v>44749.42152777778</v>
+        <v>44749.45069444444</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="K34">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L34">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M34" s="2">
         <v>44750.65481481481</v>
@@ -2225,21 +2225,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127015)</t>
+          <t>BNZM-ZENGİLAN BRANCH (K0100204)</t>
         </is>
       </c>
       <c r="B35" s="2">
-        <v>44750.6378587963</v>
+        <v>44750.57111111112</v>
       </c>
       <c r="C35" s="2">
-        <v>44750.64744212963</v>
+        <v>44750.6466550926</v>
       </c>
       <c r="D35" s="2">
-        <v>44749.45069444444</v>
+        <v>44790.51319444444</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2249,12 +2249,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Unknown error</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="K35">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L35">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M35" s="2">
         <v>44750.65481481481</v>
@@ -2280,21 +2280,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BNZM-ZENGİLAN BRANCH (K0100204)</t>
+          <t>Hezi Aslanov branch (K0100990)</t>
         </is>
       </c>
       <c r="B36" s="2">
-        <v>44750.57111111112</v>
+        <v>44749</v>
       </c>
       <c r="C36" s="2">
-        <v>44750.6466550926</v>
+        <v>44750.64859953704</v>
       </c>
       <c r="D36" s="2">
-        <v>44790.51319444444</v>
+        <v>44748.56388888889</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>619</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Unknown error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="K36">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M36" s="2">
         <v>44750.65481481481</v>
@@ -2335,21 +2335,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hezi Aslanov branch (K0100990)</t>
+          <t>İZM -Kurdemir branch (K0100959)</t>
         </is>
       </c>
       <c r="B37" s="2">
-        <v>44749</v>
+        <v>44749.93921296296</v>
       </c>
       <c r="C37" s="2">
-        <v>44750.64859953704</v>
+        <v>44750.64813657408</v>
       </c>
       <c r="D37" s="2">
-        <v>44748.56388888889</v>
+        <v>44748.51736111111</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="K37">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M37" s="2">
         <v>44750.65481481481</v>
@@ -2390,21 +2390,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>İZM -Kurdemir branch (K0100959)</t>
+          <t>Landau School 2 (K0100579)</t>
         </is>
       </c>
       <c r="B38" s="2">
-        <v>44749.93921296296</v>
+        <v>44744</v>
       </c>
       <c r="C38" s="2">
-        <v>44750.64813657408</v>
+        <v>44750.64674768518</v>
       </c>
       <c r="D38" s="2">
-        <v>44748.51736111111</v>
+        <v>44740.45763888889</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="K38">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L38">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M38" s="2">
         <v>44750.65481481481</v>
@@ -2445,21 +2445,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Landau School 2 (K0100579)</t>
+          <t>XZM-SHİRVANOVKA GOMRUK POSTU (K0100222)</t>
         </is>
       </c>
       <c r="B39" s="2">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="C39" s="2">
-        <v>44750.64674768518</v>
+        <v>44750.64837962963</v>
       </c>
       <c r="D39" s="2">
-        <v>44740.45763888889</v>
+        <v>44736.48263888889</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="K39">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M39" s="2">
         <v>44750.65481481481</v>
@@ -2500,21 +2500,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>XZM-SHİRVANOVKA GOMRUK POSTU (K0100222)</t>
+          <t>POLİS AKADEMİYASİ SUVALAN (K0100226)</t>
         </is>
       </c>
       <c r="B40" s="2">
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="C40" s="2">
-        <v>44750.64837962963</v>
+        <v>44750.64730324074</v>
       </c>
       <c r="D40" s="2">
-        <v>44736.48263888889</v>
+        <v>44733.61527777778</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="K40">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M40" s="2">
         <v>44750.65481481481</v>
@@ -2555,21 +2555,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>POLİS AKADEMİYASİ SUVALAN (K0100226)</t>
+          <t>PreProd Chinar plaza (K0000265)</t>
         </is>
       </c>
       <c r="B41" s="2">
-        <v>44747</v>
+        <v>44749.67137731482</v>
       </c>
       <c r="C41" s="2">
-        <v>44750.64730324074</v>
+        <v>44750.64851851852</v>
       </c>
       <c r="D41" s="2">
-        <v>44733.61527777778</v>
+        <v>44729.45625</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2582,11 +2582,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2598,10 +2593,10 @@
         </is>
       </c>
       <c r="K41">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L41">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M41" s="2">
         <v>44750.65481481481</v>
@@ -2610,21 +2605,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PreProd Chinar plaza (K0000265)</t>
+          <t>AZERGOLD QSC (ADM000010)</t>
         </is>
       </c>
       <c r="B42" s="2">
-        <v>44749.67137731482</v>
+        <v>44749.79828703703</v>
       </c>
       <c r="C42" s="2">
-        <v>44750.64851851852</v>
+        <v>44750.64755787037</v>
       </c>
       <c r="D42" s="2">
-        <v>44729.45625</v>
+        <v>44740.57152777778</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2648,10 +2643,10 @@
         </is>
       </c>
       <c r="K42">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L42">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M42" s="2">
         <v>44750.65481481481</v>
@@ -2660,21 +2655,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AZERGOLD QSC (ADM000010)</t>
+          <t>Yardimli branch (K0175012)</t>
         </is>
       </c>
       <c r="B43" s="2">
-        <v>44749.79828703703</v>
+        <v>44750.39895833333</v>
       </c>
       <c r="C43" s="2">
-        <v>44750.64755787037</v>
+        <v>44750.64861111112</v>
       </c>
       <c r="D43" s="2">
-        <v>44740.57152777778</v>
+        <v>44743.36875</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>508</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2698,10 +2693,10 @@
         </is>
       </c>
       <c r="K43">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L43">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M43" s="2">
         <v>44750.65481481481</v>
@@ -2710,21 +2705,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BAKİ TAKSİ XİDMETİ (K0100569)</t>
+          <t>BAKİXANOV FİLİALİ (ADM000007) 24/7</t>
         </is>
       </c>
       <c r="B44" s="2">
-        <v>44750.37606481482</v>
+        <v>44750.40862268519</v>
       </c>
       <c r="C44" s="2">
-        <v>44750.64768518518</v>
+        <v>44750.64789351852</v>
       </c>
       <c r="D44" s="2">
-        <v>44750.56597222222</v>
+        <v>44748.49930555555</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2748,10 +2743,10 @@
         </is>
       </c>
       <c r="K44">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L44">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M44" s="2">
         <v>44750.65481481481</v>
@@ -2760,21 +2755,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Yardimli branch (K0175012)</t>
+          <t>XZM-XACMAZ SOBESİ (K0100224)</t>
         </is>
       </c>
       <c r="B45" s="2">
-        <v>44750.39895833333</v>
+        <v>44750.44690972222</v>
       </c>
       <c r="C45" s="2">
-        <v>44750.64861111112</v>
+        <v>44750.64831018519</v>
       </c>
       <c r="D45" s="2">
-        <v>44743.36875</v>
+        <v>44735.45277777778</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2787,6 +2782,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="K45">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L45">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M45" s="2">
         <v>44750.65481481481</v>
@@ -2810,21 +2810,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BAKİXANOV FİLİALİ (ADM000007) 24/7</t>
+          <t>K2-BAKI PROBOSIYA IDARESI (K0100283)</t>
         </is>
       </c>
       <c r="B46" s="2">
-        <v>44750.40862268519</v>
+        <v>44750.4605787037</v>
       </c>
       <c r="C46" s="2">
-        <v>44750.64789351852</v>
+        <v>44750.64858796296</v>
       </c>
       <c r="D46" s="2">
-        <v>44748.49930555555</v>
+        <v>44741.44513888889</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2837,6 +2837,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2848,10 +2853,10 @@
         </is>
       </c>
       <c r="K46">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L46">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M46" s="2">
         <v>44750.65481481481</v>
@@ -2860,21 +2865,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>XZM-XACMAZ SOBESİ (K0100224)</t>
+          <t>LEXUS SM (ADM000003)</t>
         </is>
       </c>
       <c r="B47" s="2">
-        <v>44750.44690972222</v>
+        <v>44750.46435185186</v>
       </c>
       <c r="C47" s="2">
-        <v>44750.64831018519</v>
+        <v>44750.64673611111</v>
       </c>
       <c r="D47" s="2">
-        <v>44735.45277777778</v>
+        <v>44746.39861111112</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2887,11 +2892,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="K47">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L47">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M47" s="2">
         <v>44750.65481481481</v>
@@ -2915,21 +2915,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>K2-BAKI PROBOSIYA IDARESI (K0100283)</t>
+          <t>Iqtisadi ITKM (K0100538)</t>
         </is>
       </c>
       <c r="B48" s="2">
-        <v>44750.4605787037</v>
+        <v>44750.465</v>
       </c>
       <c r="C48" s="2">
-        <v>44750.64858796296</v>
+        <v>44750.6475</v>
       </c>
       <c r="D48" s="2">
-        <v>44741.44513888889</v>
+        <v>44749.51458333334</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2942,11 +2942,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>OK</t>
@@ -2958,10 +2953,10 @@
         </is>
       </c>
       <c r="K48">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L48">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M48" s="2">
         <v>44750.65481481481</v>
@@ -2970,21 +2965,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LEXUS SM (ADM000003)</t>
+          <t>Yardimli branch (K0175011)</t>
         </is>
       </c>
       <c r="B49" s="2">
-        <v>44750.46435185186</v>
+        <v>44750.4678587963</v>
       </c>
       <c r="C49" s="2">
-        <v>44750.64673611111</v>
+        <v>44750.64763888888</v>
       </c>
       <c r="D49" s="2">
-        <v>44746.39861111112</v>
+        <v>44743.36944444444</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>621</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3008,10 +3003,10 @@
         </is>
       </c>
       <c r="K49">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L49">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M49" s="2">
         <v>44750.65481481481</v>
@@ -3020,21 +3015,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Iqtisadi ITKM (K0100538)</t>
+          <t>Az.Dövlet Pedoqoji Universiteti (K0100512)</t>
         </is>
       </c>
       <c r="B50" s="2">
-        <v>44750.465</v>
+        <v>44750.50019675925</v>
       </c>
       <c r="C50" s="2">
-        <v>44750.6475</v>
+        <v>44750.64810185185</v>
       </c>
       <c r="D50" s="2">
-        <v>44749.51458333334</v>
+        <v>44743.62638888889</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3058,10 +3053,10 @@
         </is>
       </c>
       <c r="K50">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L50">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M50" s="2">
         <v>44750.65481481481</v>
@@ -3070,21 +3065,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Yardimli branch (K0175011)</t>
+          <t>SZM- BALAKEN ASAN SHOBE (K0100387)</t>
         </is>
       </c>
       <c r="B51" s="2">
-        <v>44750.4678587963</v>
+        <v>44750.51119212963</v>
       </c>
       <c r="C51" s="2">
-        <v>44750.64763888888</v>
+        <v>44750.64775462963</v>
       </c>
       <c r="D51" s="2">
-        <v>44743.36944444444</v>
+        <v>44749.60416666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3097,6 +3092,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="K51">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M51" s="2">
         <v>44750.65481481481</v>
@@ -3120,21 +3120,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Az.Dövlet Pedoqoji Universiteti (K0100512)</t>
+          <t>Daskesen branch (K0100963)</t>
         </is>
       </c>
       <c r="B52" s="2">
-        <v>44750.50019675925</v>
+        <v>44750.51225694444</v>
       </c>
       <c r="C52" s="2">
-        <v>44750.64810185185</v>
+        <v>44750.64740740741</v>
       </c>
       <c r="D52" s="2">
-        <v>44743.62638888889</v>
+        <v>44748.56111111111</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3147,6 +3147,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3158,10 +3163,10 @@
         </is>
       </c>
       <c r="K52">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L52">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M52" s="2">
         <v>44750.65481481481</v>
@@ -3170,21 +3175,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SZM- BALAKEN ASAN SHOBE (K0100387)</t>
+          <t>Cabrayil branch (K0188011)</t>
         </is>
       </c>
       <c r="B53" s="2">
-        <v>44750.51119212963</v>
+        <v>44750.51862268518</v>
       </c>
       <c r="C53" s="2">
-        <v>44750.64775462963</v>
+        <v>44750.64844907407</v>
       </c>
       <c r="D53" s="2">
-        <v>44749.60416666667</v>
+        <v>44749.51527777778</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3197,11 +3202,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="K53">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L53">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M53" s="2">
         <v>44750.65481481481</v>
@@ -3225,21 +3225,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Daskesen branch (K0100963)</t>
+          <t>Xezer Deniz Gemiçilik (K0100501)</t>
         </is>
       </c>
       <c r="B54" s="2">
-        <v>44750.51225694444</v>
+        <v>44750.52569444444</v>
       </c>
       <c r="C54" s="2">
-        <v>44750.64740740741</v>
+        <v>44750.64784722222</v>
       </c>
       <c r="D54" s="2">
-        <v>44748.56111111111</v>
+        <v>44747.59375</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>447</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3252,11 +3252,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3268,10 +3263,10 @@
         </is>
       </c>
       <c r="K54">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L54">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M54" s="2">
         <v>44750.65481481481</v>
@@ -3280,21 +3275,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cabrayil branch (K0188011)</t>
+          <t>Sumqayit branch (K0125014)</t>
         </is>
       </c>
       <c r="B55" s="2">
-        <v>44750.51862268518</v>
+        <v>44750.54615740741</v>
       </c>
       <c r="C55" s="2">
-        <v>44750.64844907407</v>
+        <v>44750.64738425926</v>
       </c>
       <c r="D55" s="2">
-        <v>44749.51527777778</v>
+        <v>44747.68680555555</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>312</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3318,10 +3313,10 @@
         </is>
       </c>
       <c r="K55">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L55">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M55" s="2">
         <v>44750.65481481481</v>
@@ -3330,21 +3325,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Xezer Deniz Gemiçilik (K0100501)</t>
+          <t>GZM- Mingecevir branch (K0129013)</t>
         </is>
       </c>
       <c r="B56" s="2">
-        <v>44750.52569444444</v>
+        <v>44750.62048611111</v>
       </c>
       <c r="C56" s="2">
-        <v>44750.64784722222</v>
+        <v>44750.63425925926</v>
       </c>
       <c r="D56" s="2">
-        <v>44747.59375</v>
+        <v>44749.65347222222</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>316</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3359,47 +3354,47 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K56">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L56">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M56" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sumqayit branch (K0125014)</t>
+          <t>Sahbuz branch (K0134002)</t>
         </is>
       </c>
       <c r="B57" s="2">
-        <v>44750.54615740741</v>
+        <v>44750.64986111112</v>
       </c>
       <c r="C57" s="2">
-        <v>44750.64738425926</v>
+        <v>44750.65710648148</v>
       </c>
       <c r="D57" s="2">
-        <v>44747.68680555555</v>
+        <v>44750.65208333333</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3407,6 +3402,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3414,37 +3414,37 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K57">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L57">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M57" s="2">
-        <v>44750.65481481481</v>
+        <v>44750.65822916667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GZM- Mingecevir branch (K0129013)</t>
+          <t>Beyleqan branch (K0140011)</t>
         </is>
       </c>
       <c r="B58" s="2">
-        <v>44750.62048611111</v>
+        <v>44750.63945601851</v>
       </c>
       <c r="C58" s="2">
-        <v>44750.63425925926</v>
+        <v>44750.65671296296</v>
       </c>
       <c r="D58" s="2">
-        <v>44749.65347222222</v>
+        <v>44747.45138888889</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>979</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3454,24 +3454,24 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Unknown error</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K58">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L58">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M58" s="2">
         <v>44750.65822916667</v>
@@ -3480,31 +3480,31 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sahbuz branch (K0134002)</t>
+          <t>K1-Bineqedi branch (K0100978) 24/7</t>
         </is>
       </c>
       <c r="B59" s="2">
-        <v>44750.64986111112</v>
+        <v>44750.65123842593</v>
       </c>
       <c r="C59" s="2">
-        <v>44750.65710648148</v>
+        <v>44750.65789351852</v>
       </c>
       <c r="D59" s="2">
-        <v>44750.65208333333</v>
+        <v>44746.49027777778</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Paper end</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3519,14 +3519,14 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K59">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L59">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M59" s="2">
         <v>44750.65822916667</v>
@@ -3535,21 +3535,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140011)</t>
+          <t>Nizami branch (K0113003)</t>
         </is>
       </c>
       <c r="B60" s="2">
-        <v>44750.63945601851</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="C60" s="2">
-        <v>44750.65671296296</v>
+        <v>44750.65626157407</v>
       </c>
       <c r="D60" s="2">
-        <v>44747.45138888889</v>
+        <v>44750.48541666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>272</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Unknown error</t>
+          <t>Almost out of paper</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="K60">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L60">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M60" s="2">
         <v>44750.65822916667</v>
@@ -3585,36 +3585,31 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>K1-Bineqedi branch (K0100978) 24/7</t>
+          <t>Kurdemir branch (K0157012)</t>
         </is>
       </c>
       <c r="B61" s="2">
-        <v>44750.65123842593</v>
+        <v>44750.6456712963</v>
       </c>
       <c r="C61" s="2">
-        <v>44750.65789351852</v>
+        <v>44750.66913194444</v>
       </c>
       <c r="D61" s="2">
-        <v>44746.49027777778</v>
+        <v>44750.66458333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Paper end</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Works</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3624,47 +3619,47 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K61">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L61">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M61" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sabran branch (K0158011)</t>
+          <t>Beyleqan branch (K0140012)</t>
         </is>
       </c>
       <c r="B62" s="2">
-        <v>44750.64643518519</v>
+        <v>44750.66349537037</v>
       </c>
       <c r="C62" s="2">
-        <v>44750.65670138889</v>
+        <v>44750.6672337963</v>
       </c>
       <c r="D62" s="2">
-        <v>44748.39791666667</v>
+        <v>44748.36041666666</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>660</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Almost out of paper</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3674,37 +3669,37 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K62">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L62">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M62" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nizami branch (K0113003)</t>
+          <t>GZM-Gence branch (K0127012)</t>
         </is>
       </c>
       <c r="B63" s="2">
-        <v>44750.65626157407</v>
+        <v>44750.60032407408</v>
       </c>
       <c r="C63" s="2">
-        <v>44750.65626157407</v>
+        <v>44750.66859953704</v>
       </c>
       <c r="D63" s="2">
-        <v>44750.48541666666</v>
+        <v>44749.44652777778</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3714,7 +3709,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Almost out of paper</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Does not work</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3728,38 +3728,38 @@
         </is>
       </c>
       <c r="K63">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L63">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M63" s="2">
-        <v>44750.65822916667</v>
+        <v>44750.66956018518</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kurdemir branch (K0157012)</t>
+          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
         </is>
       </c>
       <c r="B64" s="2">
-        <v>44750.6456712963</v>
+        <v>44750.41467592593</v>
       </c>
       <c r="C64" s="2">
-        <v>44750.66913194444</v>
+        <v>44750.66907407407</v>
       </c>
       <c r="D64" s="2">
-        <v>44750.66458333333</v>
+        <v>44736.46180555556</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3767,6 +3767,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3774,14 +3779,14 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K64">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L64">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M64" s="2">
         <v>44750.66956018518</v>
@@ -3790,26 +3795,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Beyleqan branch (K0140012)</t>
+          <t>Quba branch (K0165014)</t>
         </is>
       </c>
       <c r="B65" s="2">
-        <v>44750.66349537037</v>
+        <v>44750.57202546296</v>
       </c>
       <c r="C65" s="2">
-        <v>44750.6672337963</v>
+        <v>44750.66010416667</v>
       </c>
       <c r="D65" s="2">
-        <v>44748.36041666666</v>
+        <v>44750.65763888889</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3819,7 +3824,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3834,27 +3839,27 @@
         <v>30</v>
       </c>
       <c r="M65" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GZM-Gence branch (K0127012)</t>
+          <t>Quba branch (K0165012)</t>
         </is>
       </c>
       <c r="B66" s="2">
-        <v>44750.60032407408</v>
+        <v>44750.64157407408</v>
       </c>
       <c r="C66" s="2">
-        <v>44750.66859953704</v>
+        <v>44750.66173611111</v>
       </c>
       <c r="D66" s="2">
-        <v>44749.44652777778</v>
+        <v>44750.65902777778</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3867,19 +3872,14 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K66">
@@ -3889,32 +3889,32 @@
         <v>30</v>
       </c>
       <c r="M66" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>XZM-SHİMAL QUBA ASAN SHOBE (K0100255)</t>
+          <t>Lenkeran branch (K0100999)</t>
         </is>
       </c>
       <c r="B67" s="2">
-        <v>44750.41467592593</v>
+        <v>44750.66299768518</v>
       </c>
       <c r="C67" s="2">
-        <v>44750.66907407407</v>
+        <v>44750.67922453704</v>
       </c>
       <c r="D67" s="2">
-        <v>44736.46180555556</v>
+        <v>44750.67222222222</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3922,11 +3922,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>OK</t>
@@ -3934,7 +3929,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K67">
@@ -3944,32 +3939,32 @@
         <v>30</v>
       </c>
       <c r="M67" s="2">
-        <v>44750.66956018518</v>
+        <v>44750.67972222222</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Quba branch (K0165014)</t>
+          <t>Merkez branch (K0102012)</t>
         </is>
       </c>
       <c r="B68" s="2">
-        <v>44750.57202546296</v>
+        <v>44750.67278935186</v>
       </c>
       <c r="C68" s="2">
-        <v>44750.66010416667</v>
+        <v>44750.67956018519</v>
       </c>
       <c r="D68" s="2">
-        <v>44750.65763888889</v>
+        <v>44749.39097222222</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3979,7 +3974,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3988,10 +3983,10 @@
         </is>
       </c>
       <c r="K68">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M68" s="2">
         <v>44750.67972222222</v>
@@ -4000,26 +3995,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Quba branch (K0165012)</t>
+          <t>Gence Kart Merkezi branch (K0206011)</t>
         </is>
       </c>
       <c r="B69" s="2">
-        <v>44750.64157407408</v>
+        <v>44750.67733796296</v>
       </c>
       <c r="C69" s="2">
-        <v>44750.66173611111</v>
+        <v>44750.67946759259</v>
       </c>
       <c r="D69" s="2">
-        <v>44750.65902777778</v>
+        <v>44749.39652777778</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>733</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4029,7 +4024,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4038,10 +4033,10 @@
         </is>
       </c>
       <c r="K69">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M69" s="2">
         <v>44750.67972222222</v>
@@ -4050,26 +4045,26 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lenkeran branch (K0100999)</t>
+          <t>Menzil Insaat Dövlet agentliyi. MIDA (K0100564)</t>
         </is>
       </c>
       <c r="B70" s="2">
-        <v>44750.66299768518</v>
+        <v>44750.67797453704</v>
       </c>
       <c r="C70" s="2">
-        <v>44750.67922453704</v>
+        <v>44750.67940972222</v>
       </c>
       <c r="D70" s="2">
-        <v>44750.67222222222</v>
+        <v>44746.55486111112</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>445</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4077,6 +4072,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4084,14 +4084,14 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K70">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M70" s="2">
         <v>44750.67972222222</v>
@@ -4100,26 +4100,26 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Merkez branch (K0102012)</t>
+          <t>TZM-TOVUZ ASAN SHOBE (K0100206)</t>
         </is>
       </c>
       <c r="B71" s="2">
-        <v>44750.67278935186</v>
+        <v>44750.58619212963</v>
       </c>
       <c r="C71" s="2">
-        <v>44750.67956018519</v>
+        <v>44750.67873842592</v>
       </c>
       <c r="D71" s="2">
-        <v>44749.39097222222</v>
+        <v>44787.53263888889</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>428</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4127,6 +4127,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4134,14 +4139,14 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K71">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M71" s="2">
         <v>44750.67972222222</v>
@@ -4150,26 +4155,26 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Gence Kart Merkezi branch (K0206011)</t>
+          <t>Gedebey branch (K0181012)</t>
         </is>
       </c>
       <c r="B72" s="2">
-        <v>44750.67733796296</v>
+        <v>44750.59247685185</v>
       </c>
       <c r="C72" s="2">
-        <v>44750.67946759259</v>
+        <v>44750.67920138889</v>
       </c>
       <c r="D72" s="2">
-        <v>44749.39652777778</v>
+        <v>44743.41041666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>873</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4184,14 +4189,14 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K72">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M72" s="2">
         <v>44750.67972222222</v>
@@ -4200,21 +4205,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Menzil Insaat Dövlet agentliyi. MIDA (K0100564)</t>
+          <t>Quba branch (K0165011)</t>
         </is>
       </c>
       <c r="B73" s="2">
-        <v>44750.67797453704</v>
+        <v>44750.66194444444</v>
       </c>
       <c r="C73" s="2">
-        <v>44750.67940972222</v>
+        <v>44750.66246527778</v>
       </c>
       <c r="D73" s="2">
-        <v>44746.55486111112</v>
+        <v>44750.65972222222</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4227,19 +4232,14 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K73">
@@ -4249,32 +4249,32 @@
         <v>15</v>
       </c>
       <c r="M73" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TZM-TOVUZ ASAN SHOBE (K0100206)</t>
+          <t>Ucar branch (K0177013)</t>
         </is>
       </c>
       <c r="B74" s="2">
-        <v>44750.58619212963</v>
+        <v>44750.68534722222</v>
       </c>
       <c r="C74" s="2">
-        <v>44750.67873842592</v>
+        <v>44750.68966435186</v>
       </c>
       <c r="D74" s="2">
-        <v>44787.53263888889</v>
+        <v>44750.68472222222</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4282,11 +4282,6 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4294,7 +4289,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K74">
@@ -4304,32 +4299,32 @@
         <v>15</v>
       </c>
       <c r="M74" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gedebey branch (K0181012)</t>
+          <t>Qubadli branch (K0126011)</t>
         </is>
       </c>
       <c r="B75" s="2">
-        <v>44750.59247685185</v>
+        <v>44750.68748842593</v>
       </c>
       <c r="C75" s="2">
-        <v>44750.67920138889</v>
+        <v>44750.68958333333</v>
       </c>
       <c r="D75" s="2">
-        <v>44743.41041666667</v>
+        <v>44749.39166666666</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4344,7 +4339,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K75">
@@ -4354,32 +4349,32 @@
         <v>15</v>
       </c>
       <c r="M75" s="2">
-        <v>44750.67972222222</v>
+        <v>44750.69021990741</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Quba branch (K0165011)</t>
+          <t>Samaxi branch (K0173012)</t>
         </is>
       </c>
       <c r="B76" s="2">
-        <v>44750.66194444444</v>
+        <v>44750.68784722222</v>
       </c>
       <c r="C76" s="2">
-        <v>44750.66246527778</v>
+        <v>44750.68982638889</v>
       </c>
       <c r="D76" s="2">
-        <v>44750.65972222222</v>
+        <v>44749.38125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>652</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Stack out</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4389,7 +4384,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Disconnect</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4398,10 +4393,10 @@
         </is>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M76" s="2">
         <v>44750.69021990741</v>
@@ -4410,26 +4405,26 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ucar branch (K0177013)</t>
+          <t>Bravo-2 branch (K0207011)</t>
         </is>
       </c>
       <c r="B77" s="2">
-        <v>44750.68534722222</v>
+        <v>44750.665625</v>
       </c>
       <c r="C77" s="2">
-        <v>44750.68966435186</v>
+        <v>44750.68835648148</v>
       </c>
       <c r="D77" s="2">
-        <v>44750.68472222222</v>
+        <v>44750.41319444445</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>606</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4437,6 +4432,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Does not work</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4444,14 +4444,14 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M77" s="2">
         <v>44750.69021990741</v>
@@ -4460,26 +4460,26 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GZM-Mingecevir branch (K0129011)</t>
+          <t>Balaken branch (K0169012)</t>
         </is>
       </c>
       <c r="B78" s="2">
-        <v>44750.68597222222</v>
+        <v>44750.59835648148</v>
       </c>
       <c r="C78" s="2">
-        <v>44750.68868055556</v>
+        <v>44750.68993055556</v>
       </c>
       <c r="D78" s="2">
-        <v>44750.42361111111</v>
+        <v>44749.41736111111</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>116</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I/O Error</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M78" s="2">
         <v>44750.69021990741</v>
@@ -4510,26 +4510,26 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Qubadli branch (K0126011)</t>
+          <t>K2-2 saylı DOST mərkəzi (K0100405)</t>
         </is>
       </c>
       <c r="B79" s="2">
-        <v>44750.68748842593</v>
+        <v>44750.60171296296</v>
       </c>
       <c r="C79" s="2">
-        <v>44750.68958333333</v>
+        <v>44750.68846064815</v>
       </c>
       <c r="D79" s="2">
-        <v>44749.39166666666</v>
+        <v>44729.51805555556</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4537,6 +4537,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4544,14 +4549,14 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M79" s="2">
         <v>44750.69021990741</v>
@@ -4560,26 +4565,26 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Samaxi branch (K0173012)</t>
+          <t>Baki Mühendislik Universiteti Qafqaz (K0100513)</t>
         </is>
       </c>
       <c r="B80" s="2">
-        <v>44750.68784722222</v>
+        <v>44750.60664351852</v>
       </c>
       <c r="C80" s="2">
-        <v>44750.68982638889</v>
+        <v>44750.68959490741</v>
       </c>
       <c r="D80" s="2">
-        <v>44749.38125</v>
+        <v>44749.48055555555</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Stack out</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4594,14 +4599,14 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>NOT_OK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M80" s="2">
         <v>44750.69021990741</v>
@@ -4610,21 +4615,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bravo-2 branch (K0207011)</t>
+          <t>Lacin branch (K0192011)</t>
         </is>
       </c>
       <c r="B81" s="2">
-        <v>44750.665625</v>
+        <v>44750.6212962963</v>
       </c>
       <c r="C81" s="2">
-        <v>44750.68835648148</v>
+        <v>44750.68171296296</v>
       </c>
       <c r="D81" s="2">
-        <v>44750.41319444445</v>
+        <v>44750.67916666667</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4637,19 +4642,14 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Does not work</t>
-        </is>
-      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K81">
@@ -4659,27 +4659,27 @@
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <v>44750.69021990741</v>
+        <v>44750.70043981481</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Balaken branch (K0169012)</t>
+          <t>Lacin branch (K0192012)</t>
         </is>
       </c>
       <c r="B82" s="2">
-        <v>44750.59835648148</v>
+        <v>44750.67094907408</v>
       </c>
       <c r="C82" s="2">
-        <v>44750.68993055556</v>
+        <v>44750.68101851852</v>
       </c>
       <c r="D82" s="2">
-        <v>44749.41736111111</v>
+        <v>44750.67847222222</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4694,12 +4694,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K82">
@@ -4709,27 +4709,27 @@
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <v>44750.69021990741</v>
+        <v>44750.70043981481</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>K2-2 saylı DOST mərkəzi (K0100405)</t>
+          <t>Sabran branch (K0158011)</t>
         </is>
       </c>
       <c r="B83" s="2">
-        <v>44750.60171296296</v>
+        <v>44750.67956018519</v>
       </c>
       <c r="C83" s="2">
-        <v>44750.68846064815</v>
+        <v>44750.68108796296</v>
       </c>
       <c r="D83" s="2">
-        <v>44729.51805555556</v>
+        <v>44750.67847222222</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4739,17 +4739,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Works</t>
+          <t>Almost out of paper</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4764,32 +4759,32 @@
         <v>0</v>
       </c>
       <c r="M83" s="2">
-        <v>44750.69021990741</v>
+        <v>44750.70043981481</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Baki Mühendislik Universiteti Qafqaz (K0100513)</t>
+          <t>Kengerli branch (K0189002)</t>
         </is>
       </c>
       <c r="B84" s="2">
-        <v>44750.60664351852</v>
+        <v>44750.66949074074</v>
       </c>
       <c r="C84" s="2">
-        <v>44750.68959490741</v>
+        <v>44750.70010416667</v>
       </c>
       <c r="D84" s="2">
-        <v>44749.48055555555</v>
+        <v>44746.37777777778</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>680</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>I/O Error</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4797,6 +4792,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>OK</t>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOT_OK</t>
         </is>
       </c>
       <c r="K84">
@@ -4814,7 +4814,827 @@
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <v>44750.69021990741</v>
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Xizi branch (K0124011)</t>
+        </is>
+      </c>
+      <c r="B85" s="2">
+        <v>44750.68106481481</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44750.69983796297</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44750.69305555556</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Stack out</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Samux branch (K0185012)</t>
+        </is>
+      </c>
+      <c r="B86" s="2">
+        <v>44750.6825462963</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44750.69898148148</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44750.6875</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Stack out</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Zerdab branch (K0146012)</t>
+        </is>
+      </c>
+      <c r="B87" s="2">
+        <v>44750.68302083333</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44750.69986111111</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44750.68680555555</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Stack out</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Daskesen branch (K0184011)</t>
+        </is>
+      </c>
+      <c r="B88" s="2">
+        <v>44750.68454861111</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44750.69900462963</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44750.69166666667</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Stack out</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Daskesen branch (K0184012)</t>
+        </is>
+      </c>
+      <c r="B89" s="2">
+        <v>44750.69185185185</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44750.69934027777</v>
+      </c>
+      <c r="D89" s="2">
+        <v>44750.69236111111</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Stack out</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Seki branch (K0170011)</t>
+        </is>
+      </c>
+      <c r="B90" s="2">
+        <v>44750.69283564815</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44750.6997337963</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44750.69097222222</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Stack out</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Seki branch (K0170012)</t>
+        </is>
+      </c>
+      <c r="B91" s="2">
+        <v>44750.69523148148</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44750.69828703704</v>
+      </c>
+      <c r="D91" s="2">
+        <v>44750.69305555556</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Stack out</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>NOT_OK</t>
+        </is>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Xezer branch (K0117011)</t>
+        </is>
+      </c>
+      <c r="B92" s="2">
+        <v>44750.69597222222</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44750.69914351852</v>
+      </c>
+      <c r="D92" s="2">
+        <v>44749.37152777778</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>I/O Error</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Almost out of paper</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>28 SAYLI NOTARIUS (N0028012)</t>
+        </is>
+      </c>
+      <c r="B93" s="2">
+        <v>44750.58832175926</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44750.69954861111</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44726.41388888889</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Unknown error</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Bravo branch (K0201011)</t>
+        </is>
+      </c>
+      <c r="B94" s="2">
+        <v>44750.69733796296</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44750.69989583333</v>
+      </c>
+      <c r="D94" s="2">
+        <v>44750.61111111111</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Paper end</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>GZM - Gence branch (K0100198) 24/7</t>
+        </is>
+      </c>
+      <c r="B95" s="2">
+        <v>44744</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44750.70028935185</v>
+      </c>
+      <c r="D95" s="2">
+        <v>44750.69791666667</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>AZERENERJİ ASC (K0100240)</t>
+        </is>
+      </c>
+      <c r="B96" s="2">
+        <v>44750.60800925926</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44750.69903935185</v>
+      </c>
+      <c r="D96" s="2">
+        <v>44750.53472222222</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>GZM-QERB GENCE ASAN SHOBE (K0100207)</t>
+        </is>
+      </c>
+      <c r="B97" s="2">
+        <v>44750.61002314815</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44750.69840277778</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44736.58472222222</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Works</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>K1-QİS PARKİ (K0100555)</t>
+        </is>
+      </c>
+      <c r="B98" s="2">
+        <v>44750.6115162037</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44750.69865740741</v>
+      </c>
+      <c r="D98" s="2">
+        <v>44734.46319444444</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SNZM-Haciqabul branch (K0100991)</t>
+        </is>
+      </c>
+      <c r="B99" s="2">
+        <v>44750.6127662037</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44750.69850694445</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44743.53194444445</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
+        <v>44750.70043981481</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>GZM-Gence Texnaloqiya Universiteti (K0100528)</t>
+        </is>
+      </c>
+      <c r="B100" s="2">
+        <v>44750.61652777778</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44750.6994212963</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44744.54791666666</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>44750.70043981481</v>
       </c>
     </row>
   </sheetData>
